--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_11_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_11_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1577510.544541257</v>
+        <v>1574436.679987253</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9900695.151227366</v>
+        <v>9900695.151227353</v>
       </c>
     </row>
     <row r="8">
@@ -673,7 +673,7 @@
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>11.20861519035161</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>12.725494085322</v>
       </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
       <c r="T2" t="n">
-        <v>2.177487233474765</v>
+        <v>12.725494085322</v>
       </c>
       <c r="U2" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,29 +737,29 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11.20861519035161</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>12.725494085322</v>
       </c>
-      <c r="C3" t="n">
+      <c r="I3" t="n">
         <v>12.725494085322</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>11.20861519035162</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>11.20861519035162</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>11.20861519035162</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>11.20861519035162</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="E5" t="n">
-        <v>2.177487233474765</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>12.725494085322</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -980,22 +980,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>11.20861519035161</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>12.725494085322</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,10 +1031,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>11.20861519035161</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>11.20861519035161</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.177487233474765</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>11.20861519035161</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1226,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>11.20861519035161</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="S9" t="n">
-        <v>11.20861519035162</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>11.20861519035161</v>
+      </c>
+      <c r="I10" t="n">
         <v>12.725494085322</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.20861519035161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>322.0425120583133</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>238.2114556927612</v>
+        <v>407.523454444542</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>130.4923093460296</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>214.6657556159317</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D12" t="n">
-        <v>128.7880777047353</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E12" t="n">
         <v>135.0820259802211</v>
@@ -1469,7 +1469,7 @@
         <v>79.62364603542741</v>
       </c>
       <c r="I12" t="n">
-        <v>21.11965294238342</v>
+        <v>21.11965294238341</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>147.910928759317</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>111.4255833268762</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>92.2535023178139</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>126.5845308352368</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>230.4722567313032</v>
       </c>
       <c r="U13" t="n">
         <v>282.5475152713843</v>
       </c>
       <c r="V13" t="n">
-        <v>173.3945075558042</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>353.1848549386114</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>194.4948444937101</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>407.523454444542</v>
       </c>
       <c r="H14" t="n">
-        <v>305.4017585709749</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>78.82916265417055</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>130.4923093460296</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>214.6657556159317</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>79.62364603542741</v>
       </c>
       <c r="I15" t="n">
-        <v>21.11965294238342</v>
+        <v>21.11965294238341</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>42.9157937610028</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.8952229274298</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.0020251410377</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>230.4722567313032</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5475152713843</v>
+        <v>190.4962044847131</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -1849,22 +1849,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>163.4791912660935</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
         <v>407.523454444542</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>137.1312235553725</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>78.82916265417055</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>130.4923093460296</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>79.62364603542741</v>
       </c>
       <c r="I18" t="n">
-        <v>21.11965294238342</v>
+        <v>21.11965294238341</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,19 +2007,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.8952229274298</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.910928759317</v>
       </c>
       <c r="I19" t="n">
         <v>111.4255833268762</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>92.2535023178139</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>230.4722567313032</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5475152713843</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>34.18370259194796</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>15.82136782003557</v>
       </c>
     </row>
     <row r="20">
@@ -2086,22 +2086,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
         <v>407.523454444542</v>
       </c>
       <c r="H20" t="n">
-        <v>41.74168706484394</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>78.82916265417056</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>130.4923093460296</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>214.6657556159317</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.0745883887606</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>61.0898689258611</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>79.62364603542741</v>
       </c>
       <c r="I21" t="n">
-        <v>21.11965294238342</v>
+        <v>21.11965294238341</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>46.87146967805896</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>147.910928759317</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>111.4255833268762</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>10.60745990058275</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>230.4722567313032</v>
       </c>
       <c r="U22" t="n">
         <v>282.5475152713843</v>
@@ -2307,7 +2307,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.4017585709749</v>
       </c>
       <c r="I23" t="n">
-        <v>78.82916265417056</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>130.4923093460296</v>
+        <v>116.7609371394494</v>
       </c>
       <c r="T23" t="n">
-        <v>122.1052207551799</v>
+        <v>214.6657556159317</v>
       </c>
       <c r="U23" t="n">
         <v>253.0745883887606</v>
@@ -2417,7 +2417,7 @@
         <v>79.62364603542741</v>
       </c>
       <c r="I24" t="n">
-        <v>21.11965294238342</v>
+        <v>21.11965294238341</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>147.910928759317</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.61103926665659</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>124.5279367325102</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.4017585709749</v>
       </c>
       <c r="I26" t="n">
-        <v>78.82916265417053</v>
+        <v>78.82916265417055</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>79.62364603542741</v>
       </c>
       <c r="I27" t="n">
-        <v>21.1196529423834</v>
+        <v>21.11965294238341</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>118.5977091543317</v>
+        <v>118.5977091543318</v>
       </c>
       <c r="T27" t="n">
         <v>171.9625015178765</v>
@@ -2718,19 +2718,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.8952229274298</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>54.79001898845794</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>92.25350231781388</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>110.7411136235711</v>
+        <v>230.4722567313032</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5475152713843</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.4017585709749</v>
       </c>
       <c r="I29" t="n">
-        <v>78.82916265417053</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>130.4923093460296</v>
+        <v>116.7609371394494</v>
       </c>
       <c r="T29" t="n">
         <v>214.6657556159317</v>
@@ -2860,7 +2860,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>299.9652671278541</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.8952229274298</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>147.910928759317</v>
       </c>
       <c r="I31" t="n">
-        <v>111.4255833268762</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.0020251410377</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>230.4722567313032</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5475152713843</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>126.0160828686494</v>
       </c>
       <c r="W31" t="n">
-        <v>7.801893555898639</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -3049,7 +3049,7 @@
         <v>305.4017585709749</v>
       </c>
       <c r="I32" t="n">
-        <v>78.82916265417053</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>292.9975441555229</v>
+        <v>371.8267068096935</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.8952229274298</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>147.910928759317</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>111.4255833268762</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>92.25350231781388</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.0020251410377</v>
       </c>
       <c r="T34" t="n">
-        <v>148.9329967325364</v>
+        <v>230.4722567313032</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5475152713843</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
@@ -3252,10 +3252,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>42.48637533106782</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>87.95352896070133</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>309.3009819946374</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>407.523454444542</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>305.4017585709749</v>
       </c>
       <c r="I35" t="n">
         <v>78.82916265417053</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>130.4923093460296</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>214.6657556159317</v>
       </c>
       <c r="U35" t="n">
         <v>253.0745883887606</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>129.4912573604259</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.8952229274298</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>147.910928759317</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>111.4255833268762</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.0020251410377</v>
+        <v>10.60745990058275</v>
       </c>
       <c r="T37" t="n">
         <v>230.4722567313032</v>
@@ -3486,13 +3486,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>32.9806302737012</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>407.523454444542</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>305.4017585709749</v>
       </c>
       <c r="I38" t="n">
-        <v>78.82916265417053</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>253.0745883887606</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>114.1806742048867</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>60.34389214757093</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>147.910928759317</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>83.57747171278879</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.0020251410377</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>230.4722567313032</v>
       </c>
       <c r="U40" t="n">
         <v>282.5475152713843</v>
@@ -3723,7 +3723,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -3742,19 +3742,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>93.90316274679778</v>
+        <v>143.0329573399839</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3796,16 +3796,16 @@
         <v>214.6657556159317</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.0745883887606</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>40.40371098962949</v>
       </c>
       <c r="D43" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.8952229274298</v>
       </c>
       <c r="H43" t="n">
         <v>147.910928759317</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.0020251410377</v>
       </c>
       <c r="T43" t="n">
         <v>230.4722567313032</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>192.8202414736623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,22 +3979,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>407.523454444542</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>305.4017585709749</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>214.6657556159317</v>
       </c>
       <c r="U44" t="n">
-        <v>206.5319024066402</v>
+        <v>253.0745883887606</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>309.5286616436016</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4143,19 +4143,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>165.8952229274298</v>
+        <v>96.98260620906474</v>
       </c>
       <c r="H46" t="n">
         <v>147.910928759317</v>
       </c>
       <c r="I46" t="n">
-        <v>111.4255833268762</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.0020251410377</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>230.4722567313032</v>
       </c>
       <c r="U46" t="n">
-        <v>87.18327503096054</v>
+        <v>282.5475152713843</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.99442542803671</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="C2" t="n">
-        <v>22.99442542803671</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="D2" t="n">
-        <v>22.99442542803671</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="E2" t="n">
-        <v>22.99442542803671</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="F2" t="n">
-        <v>10.14039099841853</v>
+        <v>12.33987305243345</v>
       </c>
       <c r="G2" t="n">
         <v>1.01803952682576</v>
@@ -4330,22 +4330,22 @@
         <v>1.01803952682576</v>
       </c>
       <c r="J2" t="n">
-        <v>1.01803952682576</v>
+        <v>13.10725890788166</v>
       </c>
       <c r="K2" t="n">
-        <v>1.01803952682576</v>
+        <v>13.10725890788166</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01803952682576</v>
+        <v>25.70549805235044</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01803952682576</v>
+        <v>38.30373719681921</v>
       </c>
       <c r="N2" t="n">
-        <v>13.10725890788166</v>
+        <v>38.30373719681921</v>
       </c>
       <c r="O2" t="n">
-        <v>25.70549805235044</v>
+        <v>38.30373719681921</v>
       </c>
       <c r="P2" t="n">
         <v>38.30373719681921</v>
@@ -4354,28 +4354,28 @@
         <v>50.90197634128799</v>
       </c>
       <c r="R2" t="n">
-        <v>38.04794191166981</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="S2" t="n">
         <v>38.04794191166981</v>
       </c>
       <c r="T2" t="n">
-        <v>35.84845985765489</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="U2" t="n">
-        <v>22.99442542803671</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="V2" t="n">
-        <v>22.99442542803671</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="W2" t="n">
-        <v>22.99442542803671</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="X2" t="n">
-        <v>22.99442542803671</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="Y2" t="n">
-        <v>22.99442542803671</v>
+        <v>25.19390748205163</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>38.04794191166981</v>
+      </c>
+      <c r="C3" t="n">
+        <v>26.72610838606212</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26.72610838606212</v>
+      </c>
+      <c r="E3" t="n">
+        <v>26.72610838606212</v>
+      </c>
+      <c r="F3" t="n">
+        <v>26.72610838606212</v>
+      </c>
+      <c r="G3" t="n">
+        <v>26.72610838606212</v>
+      </c>
+      <c r="H3" t="n">
         <v>13.87207395644394</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.01803952682576</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.01803952682576</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.01803952682576</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.01803952682576</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.01803952682576</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.01803952682576</v>
       </c>
       <c r="I3" t="n">
         <v>1.01803952682576</v>
@@ -4412,49 +4412,49 @@
         <v>13.61627867129454</v>
       </c>
       <c r="K3" t="n">
-        <v>25.70549805235044</v>
+        <v>26.21451781576332</v>
       </c>
       <c r="L3" t="n">
-        <v>25.70549805235044</v>
+        <v>26.21451781576332</v>
       </c>
       <c r="M3" t="n">
-        <v>25.70549805235044</v>
+        <v>38.81275696023209</v>
       </c>
       <c r="N3" t="n">
-        <v>25.70549805235044</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="O3" t="n">
-        <v>25.70549805235044</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="P3" t="n">
-        <v>38.30373719681921</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="Q3" t="n">
         <v>50.90197634128799</v>
       </c>
       <c r="R3" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="S3" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="T3" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="U3" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="V3" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="W3" t="n">
-        <v>39.5801428156803</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="X3" t="n">
-        <v>39.5801428156803</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="Y3" t="n">
-        <v>26.72610838606212</v>
+        <v>38.04794191166981</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.01803952682576</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="C4" t="n">
-        <v>1.01803952682576</v>
+        <v>26.72610838606212</v>
       </c>
       <c r="D4" t="n">
-        <v>1.01803952682576</v>
+        <v>26.72610838606212</v>
       </c>
       <c r="E4" t="n">
-        <v>1.01803952682576</v>
+        <v>26.72610838606212</v>
       </c>
       <c r="F4" t="n">
-        <v>1.01803952682576</v>
+        <v>26.72610838606212</v>
       </c>
       <c r="G4" t="n">
-        <v>1.01803952682576</v>
+        <v>26.72610838606212</v>
       </c>
       <c r="H4" t="n">
-        <v>1.01803952682576</v>
+        <v>26.72610838606212</v>
       </c>
       <c r="I4" t="n">
-        <v>1.01803952682576</v>
+        <v>13.87207395644394</v>
       </c>
       <c r="J4" t="n">
         <v>1.01803952682576</v>
       </c>
       <c r="K4" t="n">
-        <v>13.61627867129454</v>
+        <v>1.01803952682576</v>
       </c>
       <c r="L4" t="n">
-        <v>13.61627867129454</v>
+        <v>1.01803952682576</v>
       </c>
       <c r="M4" t="n">
-        <v>26.21451781576332</v>
+        <v>13.10725890788166</v>
       </c>
       <c r="N4" t="n">
-        <v>38.81275696023209</v>
+        <v>25.70549805235044</v>
       </c>
       <c r="O4" t="n">
-        <v>38.81275696023209</v>
+        <v>38.30373719681921</v>
       </c>
       <c r="P4" t="n">
         <v>50.90197634128799</v>
@@ -4518,22 +4518,22 @@
         <v>50.90197634128799</v>
       </c>
       <c r="T4" t="n">
-        <v>50.90197634128799</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="U4" t="n">
-        <v>50.90197634128799</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="V4" t="n">
         <v>39.5801428156803</v>
       </c>
       <c r="W4" t="n">
-        <v>26.72610838606212</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="X4" t="n">
-        <v>13.87207395644394</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.01803952682576</v>
+        <v>39.5801428156803</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38.04794191166981</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="C5" t="n">
-        <v>38.04794191166981</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="D5" t="n">
-        <v>38.04794191166981</v>
+        <v>26.72610838606212</v>
       </c>
       <c r="E5" t="n">
-        <v>35.84845985765489</v>
+        <v>26.72610838606212</v>
       </c>
       <c r="F5" t="n">
-        <v>22.99442542803671</v>
+        <v>13.87207395644394</v>
       </c>
       <c r="G5" t="n">
-        <v>13.87207395644394</v>
+        <v>1.01803952682576</v>
       </c>
       <c r="H5" t="n">
-        <v>13.87207395644394</v>
+        <v>1.01803952682576</v>
       </c>
       <c r="I5" t="n">
         <v>1.01803952682576</v>
@@ -4576,16 +4576,16 @@
         <v>1.01803952682576</v>
       </c>
       <c r="M5" t="n">
-        <v>13.61627867129454</v>
+        <v>1.01803952682576</v>
       </c>
       <c r="N5" t="n">
-        <v>26.21451781576332</v>
+        <v>13.10725890788166</v>
       </c>
       <c r="O5" t="n">
+        <v>25.70549805235044</v>
+      </c>
+      <c r="P5" t="n">
         <v>38.30373719681921</v>
-      </c>
-      <c r="P5" t="n">
-        <v>50.90197634128799</v>
       </c>
       <c r="Q5" t="n">
         <v>50.90197634128799</v>
@@ -4612,7 +4612,7 @@
         <v>50.90197634128799</v>
       </c>
       <c r="Y5" t="n">
-        <v>38.04794191166981</v>
+        <v>50.90197634128799</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25.19390748205163</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="C6" t="n">
-        <v>25.19390748205163</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="D6" t="n">
+        <v>38.04794191166981</v>
+      </c>
+      <c r="E6" t="n">
+        <v>38.04794191166981</v>
+      </c>
+      <c r="F6" t="n">
+        <v>38.04794191166981</v>
+      </c>
+      <c r="G6" t="n">
+        <v>26.72610838606212</v>
+      </c>
+      <c r="H6" t="n">
         <v>13.87207395644394</v>
-      </c>
-      <c r="E6" t="n">
-        <v>13.87207395644394</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.01803952682576</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.01803952682576</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.01803952682576</v>
       </c>
       <c r="I6" t="n">
         <v>1.01803952682576</v>
       </c>
       <c r="J6" t="n">
-        <v>1.01803952682576</v>
+        <v>13.10725890788166</v>
       </c>
       <c r="K6" t="n">
-        <v>1.01803952682576</v>
+        <v>25.70549805235044</v>
       </c>
       <c r="L6" t="n">
-        <v>13.61627867129454</v>
+        <v>38.30373719681921</v>
       </c>
       <c r="M6" t="n">
-        <v>25.70549805235044</v>
+        <v>38.30373719681921</v>
       </c>
       <c r="N6" t="n">
         <v>38.30373719681921</v>
       </c>
       <c r="O6" t="n">
-        <v>50.90197634128799</v>
+        <v>38.30373719681921</v>
       </c>
       <c r="P6" t="n">
-        <v>50.90197634128799</v>
+        <v>38.30373719681921</v>
       </c>
       <c r="Q6" t="n">
         <v>50.90197634128799</v>
       </c>
       <c r="R6" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="S6" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="T6" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="U6" t="n">
         <v>38.04794191166981</v>
       </c>
       <c r="V6" t="n">
-        <v>25.19390748205163</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="W6" t="n">
-        <v>25.19390748205163</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="X6" t="n">
-        <v>25.19390748205163</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="Y6" t="n">
-        <v>25.19390748205163</v>
+        <v>38.04794191166981</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.01803952682576</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="C7" t="n">
-        <v>1.01803952682576</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="D7" t="n">
-        <v>1.01803952682576</v>
+        <v>12.33987305243345</v>
       </c>
       <c r="E7" t="n">
-        <v>1.01803952682576</v>
+        <v>12.33987305243345</v>
       </c>
       <c r="F7" t="n">
-        <v>1.01803952682576</v>
+        <v>12.33987305243345</v>
       </c>
       <c r="G7" t="n">
-        <v>1.01803952682576</v>
+        <v>12.33987305243345</v>
       </c>
       <c r="H7" t="n">
-        <v>1.01803952682576</v>
+        <v>12.33987305243345</v>
       </c>
       <c r="I7" t="n">
-        <v>1.01803952682576</v>
+        <v>12.33987305243345</v>
       </c>
       <c r="J7" t="n">
         <v>1.01803952682576</v>
       </c>
       <c r="K7" t="n">
-        <v>13.10725890788166</v>
+        <v>1.01803952682576</v>
       </c>
       <c r="L7" t="n">
-        <v>13.10725890788166</v>
+        <v>1.01803952682576</v>
       </c>
       <c r="M7" t="n">
-        <v>25.70549805235044</v>
+        <v>13.61627867129454</v>
       </c>
       <c r="N7" t="n">
-        <v>38.30373719681921</v>
+        <v>26.21451781576332</v>
       </c>
       <c r="O7" t="n">
-        <v>50.90197634128799</v>
+        <v>38.81275696023209</v>
       </c>
       <c r="P7" t="n">
         <v>50.90197634128799</v>
@@ -4749,28 +4749,28 @@
         <v>50.90197634128799</v>
       </c>
       <c r="R7" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="S7" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="T7" t="n">
         <v>38.04794191166981</v>
       </c>
       <c r="U7" t="n">
-        <v>25.19390748205163</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="V7" t="n">
-        <v>12.33987305243345</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="W7" t="n">
-        <v>1.01803952682576</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="X7" t="n">
-        <v>1.01803952682576</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.01803952682576</v>
+        <v>38.04794191166981</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.99442542803671</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="C8" t="n">
-        <v>22.99442542803671</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="D8" t="n">
-        <v>22.99442542803671</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="E8" t="n">
-        <v>22.99442542803671</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="F8" t="n">
-        <v>10.14039099841853</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="G8" t="n">
-        <v>1.01803952682576</v>
+        <v>13.87207395644394</v>
       </c>
       <c r="H8" t="n">
-        <v>1.01803952682576</v>
+        <v>13.87207395644394</v>
       </c>
       <c r="I8" t="n">
         <v>1.01803952682576</v>
       </c>
       <c r="J8" t="n">
-        <v>1.01803952682576</v>
+        <v>13.61627867129454</v>
       </c>
       <c r="K8" t="n">
-        <v>1.01803952682576</v>
+        <v>13.61627867129454</v>
       </c>
       <c r="L8" t="n">
         <v>13.61627867129454</v>
       </c>
       <c r="M8" t="n">
+        <v>13.61627867129454</v>
+      </c>
+      <c r="N8" t="n">
         <v>25.70549805235044</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
+        <v>25.70549805235044</v>
+      </c>
+      <c r="P8" t="n">
         <v>38.30373719681921</v>
-      </c>
-      <c r="O8" t="n">
-        <v>50.90197634128799</v>
-      </c>
-      <c r="P8" t="n">
-        <v>50.90197634128799</v>
       </c>
       <c r="Q8" t="n">
         <v>50.90197634128799</v>
@@ -4849,7 +4849,7 @@
         <v>38.04794191166981</v>
       </c>
       <c r="Y8" t="n">
-        <v>25.19390748205163</v>
+        <v>38.04794191166981</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.01803952682576</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="C9" t="n">
-        <v>1.01803952682576</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="D9" t="n">
-        <v>1.01803952682576</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="E9" t="n">
-        <v>1.01803952682576</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="F9" t="n">
-        <v>1.01803952682576</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="G9" t="n">
-        <v>1.01803952682576</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="H9" t="n">
-        <v>1.01803952682576</v>
+        <v>13.87207395644394</v>
       </c>
       <c r="I9" t="n">
         <v>1.01803952682576</v>
       </c>
       <c r="J9" t="n">
-        <v>1.01803952682576</v>
+        <v>13.61627867129454</v>
       </c>
       <c r="K9" t="n">
-        <v>13.10725890788166</v>
+        <v>13.61627867129454</v>
       </c>
       <c r="L9" t="n">
-        <v>13.10725890788166</v>
+        <v>13.61627867129454</v>
       </c>
       <c r="M9" t="n">
-        <v>25.70549805235044</v>
+        <v>13.61627867129454</v>
       </c>
       <c r="N9" t="n">
-        <v>25.70549805235044</v>
+        <v>13.61627867129454</v>
       </c>
       <c r="O9" t="n">
         <v>25.70549805235044</v>
@@ -4907,28 +4907,28 @@
         <v>50.90197634128799</v>
       </c>
       <c r="R9" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="S9" t="n">
-        <v>39.5801428156803</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="T9" t="n">
-        <v>26.72610838606212</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="U9" t="n">
-        <v>13.87207395644394</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="V9" t="n">
-        <v>1.01803952682576</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="W9" t="n">
-        <v>1.01803952682576</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="X9" t="n">
-        <v>1.01803952682576</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.01803952682576</v>
+        <v>38.04794191166981</v>
       </c>
     </row>
     <row r="10">
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>50.90197634128799</v>
+      </c>
+      <c r="C10" t="n">
+        <v>38.04794191166981</v>
+      </c>
+      <c r="D10" t="n">
+        <v>38.04794191166981</v>
+      </c>
+      <c r="E10" t="n">
+        <v>38.04794191166981</v>
+      </c>
+      <c r="F10" t="n">
+        <v>38.04794191166981</v>
+      </c>
+      <c r="G10" t="n">
+        <v>38.04794191166981</v>
+      </c>
+      <c r="H10" t="n">
+        <v>26.72610838606212</v>
+      </c>
+      <c r="I10" t="n">
         <v>13.87207395644394</v>
-      </c>
-      <c r="C10" t="n">
-        <v>13.87207395644394</v>
-      </c>
-      <c r="D10" t="n">
-        <v>13.87207395644394</v>
-      </c>
-      <c r="E10" t="n">
-        <v>13.87207395644394</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.01803952682576</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.01803952682576</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.01803952682576</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.01803952682576</v>
       </c>
       <c r="J10" t="n">
         <v>1.01803952682576</v>
       </c>
       <c r="K10" t="n">
-        <v>13.61627867129454</v>
+        <v>1.01803952682576</v>
       </c>
       <c r="L10" t="n">
         <v>13.61627867129454</v>
       </c>
       <c r="M10" t="n">
-        <v>22.28330168229948</v>
+        <v>13.61627867129454</v>
       </c>
       <c r="N10" t="n">
-        <v>34.88154082676826</v>
+        <v>26.21451781576332</v>
       </c>
       <c r="O10" t="n">
-        <v>47.47977997123704</v>
+        <v>38.81275696023209</v>
       </c>
       <c r="P10" t="n">
-        <v>47.47977997123704</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="Q10" t="n">
         <v>50.90197634128799</v>
@@ -5001,13 +5001,13 @@
         <v>50.90197634128799</v>
       </c>
       <c r="W10" t="n">
-        <v>38.04794191166981</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="X10" t="n">
-        <v>25.19390748205163</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.87207395644394</v>
+        <v>50.90197634128799</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1884.410327103059</v>
+        <v>1175.808922653212</v>
       </c>
       <c r="C11" t="n">
-        <v>1491.234825605989</v>
+        <v>782.633421156143</v>
       </c>
       <c r="D11" t="n">
-        <v>1105.793696822657</v>
+        <v>457.337954430574</v>
       </c>
       <c r="E11" t="n">
-        <v>703.2101719392015</v>
+        <v>457.337954430574</v>
       </c>
       <c r="F11" t="n">
-        <v>286.3157334691792</v>
+        <v>457.337954430574</v>
       </c>
       <c r="G11" t="n">
         <v>45.69810145628912</v>
@@ -5047,46 +5047,46 @@
         <v>865.8764234116511</v>
       </c>
       <c r="L11" t="n">
-        <v>949.7037012982681</v>
+        <v>983.5514334362372</v>
       </c>
       <c r="M11" t="n">
-        <v>1069.908263439941</v>
+        <v>1097.410566211026</v>
       </c>
       <c r="N11" t="n">
-        <v>1635.422268961519</v>
+        <v>1216.111034236411</v>
       </c>
       <c r="O11" t="n">
-        <v>2200.936274483096</v>
+        <v>1319.52860043295</v>
       </c>
       <c r="P11" t="n">
-        <v>2266.775124023566</v>
+        <v>1882.353374873457</v>
       </c>
       <c r="Q11" t="n">
-        <v>2284.905072814456</v>
+        <v>2228.382595239504</v>
       </c>
       <c r="R11" t="n">
         <v>2284.905072814456</v>
       </c>
       <c r="S11" t="n">
-        <v>2284.905072814456</v>
+        <v>2153.094659333618</v>
       </c>
       <c r="T11" t="n">
-        <v>2284.905072814456</v>
+        <v>1936.260562751868</v>
       </c>
       <c r="U11" t="n">
-        <v>2284.905072814456</v>
+        <v>1936.260562751868</v>
       </c>
       <c r="V11" t="n">
-        <v>2284.905072814456</v>
+        <v>1936.260562751868</v>
       </c>
       <c r="W11" t="n">
-        <v>2284.905072814456</v>
+        <v>1565.261527720156</v>
       </c>
       <c r="X11" t="n">
-        <v>2284.905072814456</v>
+        <v>1175.808922653212</v>
       </c>
       <c r="Y11" t="n">
-        <v>2284.905072814456</v>
+        <v>1175.808922653212</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>808.3254975745269</v>
+        <v>808.3254975745267</v>
       </c>
       <c r="C12" t="n">
-        <v>657.6712671346191</v>
+        <v>657.6712671346188</v>
       </c>
       <c r="D12" t="n">
-        <v>527.5822997560987</v>
+        <v>527.5822997560992</v>
       </c>
       <c r="E12" t="n">
-        <v>391.1358088669864</v>
+        <v>391.135808866987</v>
       </c>
       <c r="F12" t="n">
-        <v>266.7040027501182</v>
+        <v>266.7040027501187</v>
       </c>
       <c r="G12" t="n">
         <v>147.4590095146839</v>
       </c>
       <c r="H12" t="n">
-        <v>67.03108422637338</v>
+        <v>67.03108422637337</v>
       </c>
       <c r="I12" t="n">
         <v>45.69810145628912</v>
       </c>
       <c r="J12" t="n">
-        <v>234.2641851902225</v>
+        <v>234.2641851902226</v>
       </c>
       <c r="K12" t="n">
-        <v>274.5211693726349</v>
+        <v>682.9612814148613</v>
       </c>
       <c r="L12" t="n">
-        <v>840.0351748942127</v>
+        <v>1032.012824958792</v>
       </c>
       <c r="M12" t="n">
-        <v>1405.54918041579</v>
+        <v>1142.899053470564</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.735856639235</v>
+        <v>1266.085729694009</v>
       </c>
       <c r="O12" t="n">
-        <v>1714.920728046124</v>
+        <v>1364.334605088644</v>
       </c>
       <c r="P12" t="n">
-        <v>2273.041519153566</v>
+        <v>1922.455396196087</v>
       </c>
       <c r="Q12" t="n">
-        <v>2284.905072814456</v>
+        <v>2258.762313036222</v>
       </c>
       <c r="R12" t="n">
         <v>2284.905072814456</v>
@@ -5165,7 +5165,7 @@
         <v>1139.436048939981</v>
       </c>
       <c r="Y12" t="n">
-        <v>960.1218320154883</v>
+        <v>960.1218320154881</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1224.729755880456</v>
+        <v>477.8592922046365</v>
       </c>
       <c r="C13" t="n">
-        <v>1054.524637946445</v>
+        <v>307.6541742706257</v>
       </c>
       <c r="D13" t="n">
-        <v>898.8915248489599</v>
+        <v>307.6541742706257</v>
       </c>
       <c r="E13" t="n">
-        <v>898.8915248489599</v>
+        <v>307.6541742706257</v>
       </c>
       <c r="F13" t="n">
-        <v>898.8915248489599</v>
+        <v>307.6541742706257</v>
       </c>
       <c r="G13" t="n">
-        <v>898.8915248489599</v>
+        <v>307.6541742706257</v>
       </c>
       <c r="H13" t="n">
-        <v>749.4865463041953</v>
+        <v>158.2491957258611</v>
       </c>
       <c r="I13" t="n">
-        <v>749.4865463041953</v>
+        <v>45.69810145628912</v>
       </c>
       <c r="J13" t="n">
-        <v>767.0484000620527</v>
+        <v>63.25995521414659</v>
       </c>
       <c r="K13" t="n">
-        <v>926.6703669043681</v>
+        <v>222.881922056462</v>
       </c>
       <c r="L13" t="n">
-        <v>1190.338490614415</v>
+        <v>486.5500457665089</v>
       </c>
       <c r="M13" t="n">
-        <v>1481.581552552313</v>
+        <v>777.7931077044066</v>
       </c>
       <c r="N13" t="n">
-        <v>1767.227158481256</v>
+        <v>1063.43871363335</v>
       </c>
       <c r="O13" t="n">
-        <v>2024.566598550112</v>
+        <v>1320.778153702206</v>
       </c>
       <c r="P13" t="n">
-        <v>2225.419075746369</v>
+        <v>1521.630630898464</v>
       </c>
       <c r="Q13" t="n">
-        <v>2284.905072814456</v>
+        <v>1581.11662796655</v>
       </c>
       <c r="R13" t="n">
-        <v>2191.719716937876</v>
+        <v>1581.11662796655</v>
       </c>
       <c r="S13" t="n">
-        <v>2191.719716937876</v>
+        <v>1453.253465506715</v>
       </c>
       <c r="T13" t="n">
-        <v>2191.719716937876</v>
+        <v>1220.453206182166</v>
       </c>
       <c r="U13" t="n">
-        <v>1906.31818636072</v>
+        <v>935.0516756050101</v>
       </c>
       <c r="V13" t="n">
-        <v>1731.172219132635</v>
+        <v>935.0516756050101</v>
       </c>
       <c r="W13" t="n">
-        <v>1447.841817063813</v>
+        <v>935.0516756050101</v>
       </c>
       <c r="X13" t="n">
-        <v>1447.841817063813</v>
+        <v>700.9713533879932</v>
       </c>
       <c r="Y13" t="n">
-        <v>1224.729755880456</v>
+        <v>477.8592922046365</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1142.209379942243</v>
+        <v>1150.317248605526</v>
       </c>
       <c r="C14" t="n">
-        <v>1142.209379942243</v>
+        <v>953.8578097229907</v>
       </c>
       <c r="D14" t="n">
-        <v>756.7682511589112</v>
+        <v>953.8578097229907</v>
       </c>
       <c r="E14" t="n">
-        <v>354.1847262754558</v>
+        <v>953.8578097229907</v>
       </c>
       <c r="F14" t="n">
-        <v>354.1847262754558</v>
+        <v>536.9633712529685</v>
       </c>
       <c r="G14" t="n">
-        <v>354.1847262754558</v>
+        <v>125.3235182786836</v>
       </c>
       <c r="H14" t="n">
-        <v>45.69810145628912</v>
+        <v>125.3235182786836</v>
       </c>
       <c r="I14" t="n">
         <v>45.69810145628912</v>
       </c>
       <c r="J14" t="n">
-        <v>55.87734761322105</v>
+        <v>317.0301600849718</v>
       </c>
       <c r="K14" t="n">
-        <v>104.1134357649934</v>
+        <v>365.2662482367442</v>
       </c>
       <c r="L14" t="n">
-        <v>669.6274412865712</v>
+        <v>449.0935261233613</v>
       </c>
       <c r="M14" t="n">
-        <v>1235.141446808149</v>
+        <v>635.314126885987</v>
       </c>
       <c r="N14" t="n">
-        <v>1800.655452329727</v>
+        <v>754.0145949113718</v>
       </c>
       <c r="O14" t="n">
-        <v>2200.936274483096</v>
+        <v>1319.52860043295</v>
       </c>
       <c r="P14" t="n">
-        <v>2266.775124023566</v>
+        <v>1882.353374873457</v>
       </c>
       <c r="Q14" t="n">
-        <v>2284.905072814456</v>
+        <v>2228.382595239504</v>
       </c>
       <c r="R14" t="n">
         <v>2284.905072814456</v>
       </c>
       <c r="S14" t="n">
-        <v>2284.905072814456</v>
+        <v>2153.094659333618</v>
       </c>
       <c r="T14" t="n">
-        <v>2284.905072814456</v>
+        <v>1936.260562751868</v>
       </c>
       <c r="U14" t="n">
-        <v>2284.905072814456</v>
+        <v>1936.260562751868</v>
       </c>
       <c r="V14" t="n">
-        <v>2284.905072814456</v>
+        <v>1936.260562751868</v>
       </c>
       <c r="W14" t="n">
-        <v>2284.905072814456</v>
+        <v>1936.260562751868</v>
       </c>
       <c r="X14" t="n">
-        <v>1895.452467747512</v>
+        <v>1546.807957684925</v>
       </c>
       <c r="Y14" t="n">
-        <v>1498.961758668114</v>
+        <v>1150.317248605526</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>808.3254975745269</v>
+        <v>808.3254975745263</v>
       </c>
       <c r="C15" t="n">
-        <v>657.6712671346191</v>
+        <v>657.6712671346183</v>
       </c>
       <c r="D15" t="n">
-        <v>527.5822997560995</v>
+        <v>527.5822997560988</v>
       </c>
       <c r="E15" t="n">
-        <v>391.1358088669872</v>
+        <v>391.1358088669865</v>
       </c>
       <c r="F15" t="n">
-        <v>266.704002750119</v>
+        <v>266.7040027501182</v>
       </c>
       <c r="G15" t="n">
-        <v>147.4590095146847</v>
+        <v>147.4590095146839</v>
       </c>
       <c r="H15" t="n">
-        <v>67.03108422637419</v>
+        <v>67.03108422637342</v>
       </c>
       <c r="I15" t="n">
-        <v>45.69810145628993</v>
+        <v>45.69810145628912</v>
       </c>
       <c r="J15" t="n">
-        <v>45.69810145628993</v>
+        <v>234.2641851902226</v>
       </c>
       <c r="K15" t="n">
-        <v>85.95508563870223</v>
+        <v>682.9612814148613</v>
       </c>
       <c r="L15" t="n">
-        <v>185.7692481896636</v>
+        <v>1032.012824958792</v>
       </c>
       <c r="M15" t="n">
-        <v>751.2832537112414</v>
+        <v>1142.899053470564</v>
       </c>
       <c r="N15" t="n">
-        <v>1316.797259232819</v>
+        <v>1266.085729694009</v>
       </c>
       <c r="O15" t="n">
-        <v>1882.311264754397</v>
+        <v>1364.334605088644</v>
       </c>
       <c r="P15" t="n">
-        <v>1948.598155974321</v>
+        <v>1922.455396196087</v>
       </c>
       <c r="Q15" t="n">
-        <v>2284.905072814456</v>
+        <v>2258.762313036222</v>
       </c>
       <c r="R15" t="n">
         <v>2284.905072814456</v>
@@ -5387,7 +5387,7 @@
         <v>2165.109407001999</v>
       </c>
       <c r="T15" t="n">
-        <v>1991.409910519296</v>
+        <v>1991.409910519295</v>
       </c>
       <c r="U15" t="n">
         <v>1781.400374085615</v>
@@ -5399,10 +5399,10 @@
         <v>1328.743126589969</v>
       </c>
       <c r="X15" t="n">
-        <v>1139.436048939981</v>
+        <v>1139.43604893998</v>
       </c>
       <c r="Y15" t="n">
-        <v>960.1218320154883</v>
+        <v>960.1218320154876</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>414.811318158373</v>
+        <v>383.474151640229</v>
       </c>
       <c r="C16" t="n">
-        <v>244.6062002243622</v>
+        <v>213.2690337062183</v>
       </c>
       <c r="D16" t="n">
-        <v>244.6062002243622</v>
+        <v>213.2690337062183</v>
       </c>
       <c r="E16" t="n">
-        <v>89.04738808356467</v>
+        <v>213.2690337062183</v>
       </c>
       <c r="F16" t="n">
-        <v>45.69810145628912</v>
+        <v>213.2690337062183</v>
       </c>
       <c r="G16" t="n">
         <v>45.69810145628912</v>
@@ -5436,7 +5436,7 @@
         <v>45.69810145628912</v>
       </c>
       <c r="J16" t="n">
-        <v>63.25995521414657</v>
+        <v>63.25995521414658</v>
       </c>
       <c r="K16" t="n">
         <v>222.881922056462</v>
@@ -5463,25 +5463,25 @@
         <v>1581.11662796655</v>
       </c>
       <c r="S16" t="n">
-        <v>1390.205491460451</v>
+        <v>1581.11662796655</v>
       </c>
       <c r="T16" t="n">
-        <v>1157.405232135902</v>
+        <v>1348.316368642001</v>
       </c>
       <c r="U16" t="n">
-        <v>872.0037015587466</v>
+        <v>1155.895960071584</v>
       </c>
       <c r="V16" t="n">
-        <v>872.0037015587466</v>
+        <v>889.916614892408</v>
       </c>
       <c r="W16" t="n">
-        <v>872.0037015587466</v>
+        <v>606.5862128235857</v>
       </c>
       <c r="X16" t="n">
-        <v>637.9233793417296</v>
+        <v>606.5862128235857</v>
       </c>
       <c r="Y16" t="n">
-        <v>414.811318158373</v>
+        <v>383.474151640229</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1410.493104325739</v>
+        <v>1494.957722036115</v>
       </c>
       <c r="C17" t="n">
-        <v>1410.493104325739</v>
+        <v>1494.957722036115</v>
       </c>
       <c r="D17" t="n">
-        <v>1025.051975542407</v>
+        <v>1494.957722036115</v>
       </c>
       <c r="E17" t="n">
-        <v>622.4684506589513</v>
+        <v>1092.37419715266</v>
       </c>
       <c r="F17" t="n">
-        <v>457.337954430574</v>
+        <v>675.4797586826377</v>
       </c>
       <c r="G17" t="n">
-        <v>45.69810145628912</v>
+        <v>263.8399057083528</v>
       </c>
       <c r="H17" t="n">
-        <v>45.69810145628912</v>
+        <v>125.3235182786836</v>
       </c>
       <c r="I17" t="n">
         <v>45.69810145628912</v>
       </c>
       <c r="J17" t="n">
-        <v>55.87734761322105</v>
+        <v>317.0301600849718</v>
       </c>
       <c r="K17" t="n">
-        <v>104.1134357649934</v>
+        <v>865.8764234116511</v>
       </c>
       <c r="L17" t="n">
-        <v>187.9407136516105</v>
+        <v>1431.390428933229</v>
       </c>
       <c r="M17" t="n">
-        <v>301.7998464263993</v>
+        <v>1978.818240261173</v>
       </c>
       <c r="N17" t="n">
-        <v>810.5370724863238</v>
+        <v>2097.518708286558</v>
       </c>
       <c r="O17" t="n">
-        <v>1376.051078007902</v>
+        <v>2200.936274483096</v>
       </c>
       <c r="P17" t="n">
-        <v>1938.875852448409</v>
+        <v>2266.775124023566</v>
       </c>
       <c r="Q17" t="n">
         <v>2284.905072814456</v>
@@ -5542,25 +5542,25 @@
         <v>2284.905072814456</v>
       </c>
       <c r="S17" t="n">
-        <v>2153.094659333618</v>
+        <v>2284.905072814456</v>
       </c>
       <c r="T17" t="n">
-        <v>2153.094659333618</v>
+        <v>2284.905072814456</v>
       </c>
       <c r="U17" t="n">
-        <v>2153.094659333618</v>
+        <v>2284.905072814456</v>
       </c>
       <c r="V17" t="n">
-        <v>1810.987850037136</v>
+        <v>2284.905072814456</v>
       </c>
       <c r="W17" t="n">
-        <v>1810.987850037136</v>
+        <v>2284.905072814456</v>
       </c>
       <c r="X17" t="n">
-        <v>1810.987850037136</v>
+        <v>1895.452467747512</v>
       </c>
       <c r="Y17" t="n">
-        <v>1810.987850037136</v>
+        <v>1895.452467747512</v>
       </c>
     </row>
     <row r="18">
@@ -5588,7 +5588,7 @@
         <v>147.4590095146839</v>
       </c>
       <c r="H18" t="n">
-        <v>67.03108422637338</v>
+        <v>67.03108422637337</v>
       </c>
       <c r="I18" t="n">
         <v>45.69810145628912</v>
@@ -5597,19 +5597,19 @@
         <v>45.69810145628912</v>
       </c>
       <c r="K18" t="n">
-        <v>85.95508563870141</v>
+        <v>85.95508563870143</v>
       </c>
       <c r="L18" t="n">
-        <v>170.1952206432204</v>
+        <v>651.4690911602793</v>
       </c>
       <c r="M18" t="n">
-        <v>735.7092261647982</v>
+        <v>1216.983096681857</v>
       </c>
       <c r="N18" t="n">
-        <v>1149.406722524545</v>
+        <v>1340.169772905302</v>
       </c>
       <c r="O18" t="n">
-        <v>1714.920728046123</v>
+        <v>1714.920728046122</v>
       </c>
       <c r="P18" t="n">
         <v>2273.041519153565</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>484.0131258006694</v>
+        <v>1113.948084479875</v>
       </c>
       <c r="C19" t="n">
-        <v>313.8080078666586</v>
+        <v>943.7429665458646</v>
       </c>
       <c r="D19" t="n">
-        <v>313.8080078666586</v>
+        <v>788.1098534483795</v>
       </c>
       <c r="E19" t="n">
-        <v>158.2491957258611</v>
+        <v>632.551041307582</v>
       </c>
       <c r="F19" t="n">
-        <v>158.2491957258611</v>
+        <v>475.2251065205548</v>
       </c>
       <c r="G19" t="n">
-        <v>158.2491957258611</v>
+        <v>307.6541742706257</v>
       </c>
       <c r="H19" t="n">
         <v>158.2491957258611</v>
@@ -5673,7 +5673,7 @@
         <v>45.69810145628912</v>
       </c>
       <c r="J19" t="n">
-        <v>63.25995521414657</v>
+        <v>63.25995521414658</v>
       </c>
       <c r="K19" t="n">
         <v>222.881922056462</v>
@@ -5697,28 +5697,28 @@
         <v>1581.11662796655</v>
       </c>
       <c r="R19" t="n">
-        <v>1487.93127208997</v>
+        <v>1581.11662796655</v>
       </c>
       <c r="S19" t="n">
-        <v>1487.93127208997</v>
+        <v>1581.11662796655</v>
       </c>
       <c r="T19" t="n">
-        <v>1255.131012765421</v>
+        <v>1581.11662796655</v>
       </c>
       <c r="U19" t="n">
-        <v>969.7294821882656</v>
+        <v>1581.11662796655</v>
       </c>
       <c r="V19" t="n">
-        <v>703.7501370090898</v>
+        <v>1315.137282787374</v>
       </c>
       <c r="W19" t="n">
-        <v>703.7501370090898</v>
+        <v>1315.137282787374</v>
       </c>
       <c r="X19" t="n">
-        <v>669.2211444919707</v>
+        <v>1315.137282787374</v>
       </c>
       <c r="Y19" t="n">
-        <v>669.2211444919707</v>
+        <v>1299.156103171177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1367.151345187275</v>
+        <v>1276.815917784052</v>
       </c>
       <c r="C20" t="n">
-        <v>1367.151345187275</v>
+        <v>1276.815917784052</v>
       </c>
       <c r="D20" t="n">
-        <v>981.7102164039431</v>
+        <v>1276.815917784052</v>
       </c>
       <c r="E20" t="n">
-        <v>579.1266915204876</v>
+        <v>874.2323929005962</v>
       </c>
       <c r="F20" t="n">
-        <v>579.1266915204876</v>
+        <v>457.337954430574</v>
       </c>
       <c r="G20" t="n">
-        <v>167.4868385462028</v>
+        <v>45.69810145628912</v>
       </c>
       <c r="H20" t="n">
-        <v>125.3235182786836</v>
+        <v>45.69810145628912</v>
       </c>
       <c r="I20" t="n">
         <v>45.69810145628912</v>
       </c>
       <c r="J20" t="n">
-        <v>55.87734761322105</v>
+        <v>317.0301600849718</v>
       </c>
       <c r="K20" t="n">
-        <v>104.1134357649934</v>
+        <v>865.8764234116511</v>
       </c>
       <c r="L20" t="n">
-        <v>577.9774716861502</v>
+        <v>983.5514334362374</v>
       </c>
       <c r="M20" t="n">
-        <v>691.836604460939</v>
+        <v>1097.410566211026</v>
       </c>
       <c r="N20" t="n">
-        <v>810.5370724863238</v>
+        <v>1216.111034236411</v>
       </c>
       <c r="O20" t="n">
-        <v>1376.051078007902</v>
+        <v>1319.52860043295</v>
       </c>
       <c r="P20" t="n">
-        <v>1938.875852448409</v>
+        <v>1882.353374873457</v>
       </c>
       <c r="Q20" t="n">
-        <v>2284.905072814456</v>
+        <v>2228.382595239504</v>
       </c>
       <c r="R20" t="n">
         <v>2284.905072814456</v>
@@ -5782,22 +5782,22 @@
         <v>2153.094659333618</v>
       </c>
       <c r="T20" t="n">
-        <v>2153.094659333618</v>
+        <v>1936.260562751868</v>
       </c>
       <c r="U20" t="n">
-        <v>2153.094659333618</v>
+        <v>1680.629665389484</v>
       </c>
       <c r="V20" t="n">
-        <v>2153.094659333618</v>
+        <v>1338.522856093002</v>
       </c>
       <c r="W20" t="n">
-        <v>2153.094659333618</v>
+        <v>1276.815917784052</v>
       </c>
       <c r="X20" t="n">
-        <v>1763.642054266674</v>
+        <v>1276.815917784052</v>
       </c>
       <c r="Y20" t="n">
-        <v>1367.151345187275</v>
+        <v>1276.815917784052</v>
       </c>
     </row>
     <row r="21">
@@ -5822,31 +5822,31 @@
         <v>266.7040027501182</v>
       </c>
       <c r="G21" t="n">
-        <v>147.4590095146839</v>
+        <v>147.4590095146841</v>
       </c>
       <c r="H21" t="n">
-        <v>67.03108422637342</v>
+        <v>67.03108422637338</v>
       </c>
       <c r="I21" t="n">
         <v>45.69810145628912</v>
       </c>
       <c r="J21" t="n">
-        <v>45.69810145628912</v>
+        <v>234.2641851902226</v>
       </c>
       <c r="K21" t="n">
-        <v>85.95508563870141</v>
+        <v>682.9612814148613</v>
       </c>
       <c r="L21" t="n">
-        <v>170.1952206432204</v>
+        <v>767.2014164193804</v>
       </c>
       <c r="M21" t="n">
-        <v>735.7092261647982</v>
+        <v>1075.726616890486</v>
       </c>
       <c r="N21" t="n">
-        <v>1149.406722524546</v>
+        <v>1641.240622412064</v>
       </c>
       <c r="O21" t="n">
-        <v>1714.920728046124</v>
+        <v>2206.754627933642</v>
       </c>
       <c r="P21" t="n">
         <v>2273.041519153566</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>512.325027924379</v>
+        <v>45.69810145628912</v>
       </c>
       <c r="C22" t="n">
-        <v>464.9801090576528</v>
+        <v>45.69810145628912</v>
       </c>
       <c r="D22" t="n">
-        <v>464.9801090576528</v>
+        <v>45.69810145628912</v>
       </c>
       <c r="E22" t="n">
-        <v>464.9801090576528</v>
+        <v>45.69810145628912</v>
       </c>
       <c r="F22" t="n">
-        <v>307.6541742706257</v>
+        <v>45.69810145628912</v>
       </c>
       <c r="G22" t="n">
-        <v>307.6541742706257</v>
+        <v>45.69810145628912</v>
       </c>
       <c r="H22" t="n">
-        <v>158.2491957258611</v>
+        <v>45.69810145628912</v>
       </c>
       <c r="I22" t="n">
         <v>45.69810145628912</v>
       </c>
       <c r="J22" t="n">
-        <v>63.25995521414657</v>
+        <v>63.25995521414658</v>
       </c>
       <c r="K22" t="n">
         <v>222.881922056462</v>
@@ -5937,25 +5937,25 @@
         <v>1581.11662796655</v>
       </c>
       <c r="S22" t="n">
-        <v>1581.11662796655</v>
+        <v>1570.402022006365</v>
       </c>
       <c r="T22" t="n">
-        <v>1581.11662796655</v>
+        <v>1337.601762681817</v>
       </c>
       <c r="U22" t="n">
-        <v>1295.715097389394</v>
+        <v>1052.200232104661</v>
       </c>
       <c r="V22" t="n">
-        <v>1029.735752210218</v>
+        <v>786.220886925485</v>
       </c>
       <c r="W22" t="n">
-        <v>746.405350141396</v>
+        <v>502.8904848566626</v>
       </c>
       <c r="X22" t="n">
-        <v>512.325027924379</v>
+        <v>268.8101626396457</v>
       </c>
       <c r="Y22" t="n">
-        <v>512.325027924379</v>
+        <v>45.69810145628912</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2495.972412945691</v>
+        <v>2416.346996123296</v>
       </c>
       <c r="C23" t="n">
-        <v>2102.796911448621</v>
+        <v>2023.171494626227</v>
       </c>
       <c r="D23" t="n">
-        <v>1717.355782665289</v>
+        <v>1637.730365842895</v>
       </c>
       <c r="E23" t="n">
-        <v>1314.772257781834</v>
+        <v>1235.146840959439</v>
       </c>
       <c r="F23" t="n">
-        <v>897.8778193118112</v>
+        <v>818.2524024894167</v>
       </c>
       <c r="G23" t="n">
-        <v>486.2379663375264</v>
+        <v>406.6125495151319</v>
       </c>
       <c r="H23" t="n">
-        <v>177.7513415183597</v>
+        <v>98.12592469596522</v>
       </c>
       <c r="I23" t="n">
         <v>98.12592469596522</v>
@@ -5992,7 +5992,7 @@
         <v>369.457983324648</v>
       </c>
       <c r="K23" t="n">
-        <v>918.304246651327</v>
+        <v>918.3042466513275</v>
       </c>
       <c r="L23" t="n">
         <v>1647.16750428966</v>
@@ -6007,7 +6007,7 @@
         <v>3940.919762416755</v>
       </c>
       <c r="P23" t="n">
-        <v>4503.744536857262</v>
+        <v>4503.744536857263</v>
       </c>
       <c r="Q23" t="n">
         <v>4849.773757223309</v>
@@ -6016,25 +6016,25 @@
         <v>4906.296234798261</v>
       </c>
       <c r="S23" t="n">
-        <v>4774.485821317423</v>
+        <v>4788.355894253363</v>
       </c>
       <c r="T23" t="n">
-        <v>4651.147214494009</v>
+        <v>4571.521797671614</v>
       </c>
       <c r="U23" t="n">
-        <v>4395.516317131624</v>
+        <v>4315.890900309229</v>
       </c>
       <c r="V23" t="n">
-        <v>4053.409507835142</v>
+        <v>3973.784091012748</v>
       </c>
       <c r="W23" t="n">
-        <v>3682.41047280343</v>
+        <v>3602.785055981035</v>
       </c>
       <c r="X23" t="n">
-        <v>3292.957867736487</v>
+        <v>3213.332450914092</v>
       </c>
       <c r="Y23" t="n">
-        <v>2896.467158657088</v>
+        <v>2816.841741834693</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>98.12592469596522</v>
       </c>
       <c r="J24" t="n">
-        <v>286.6920084298986</v>
+        <v>286.6920084298987</v>
       </c>
       <c r="K24" t="n">
-        <v>326.9489926123109</v>
+        <v>735.3891046545375</v>
       </c>
       <c r="L24" t="n">
-        <v>983.9149569034922</v>
+        <v>1084.440648198467</v>
       </c>
       <c r="M24" t="n">
-        <v>1297.450536619054</v>
+        <v>1195.32687671024</v>
       </c>
       <c r="N24" t="n">
-        <v>2160.933575778683</v>
+        <v>1318.513552933684</v>
       </c>
       <c r="O24" t="n">
-        <v>2259.182451173318</v>
+        <v>1416.762428328319</v>
       </c>
       <c r="P24" t="n">
-        <v>2325.469342393241</v>
+        <v>1974.883219435762</v>
       </c>
       <c r="Q24" t="n">
-        <v>2337.332896054131</v>
+        <v>2311.190136275897</v>
       </c>
       <c r="R24" t="n">
         <v>2337.332896054131</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>573.3691342722259</v>
+        <v>253.7590377934505</v>
       </c>
       <c r="C25" t="n">
-        <v>403.1640163382151</v>
+        <v>253.7590377934505</v>
       </c>
       <c r="D25" t="n">
-        <v>247.5309032407299</v>
+        <v>98.12592469596522</v>
       </c>
       <c r="E25" t="n">
-        <v>247.5309032407299</v>
+        <v>98.12592469596522</v>
       </c>
       <c r="F25" t="n">
-        <v>247.5309032407299</v>
+        <v>98.12592469596522</v>
       </c>
       <c r="G25" t="n">
-        <v>247.5309032407299</v>
+        <v>98.12592469596522</v>
       </c>
       <c r="H25" t="n">
         <v>98.12592469596522</v>
@@ -6156,7 +6156,7 @@
         <v>538.977869006185</v>
       </c>
       <c r="M25" t="n">
-        <v>830.2209309440825</v>
+        <v>830.2209309440826</v>
       </c>
       <c r="N25" t="n">
         <v>1115.866536873026</v>
@@ -6171,28 +6171,28 @@
         <v>1633.544451206226</v>
       </c>
       <c r="R25" t="n">
-        <v>1544.038350936876</v>
+        <v>1633.544451206226</v>
       </c>
       <c r="S25" t="n">
-        <v>1544.038350936876</v>
+        <v>1633.544451206226</v>
       </c>
       <c r="T25" t="n">
-        <v>1544.038350936876</v>
+        <v>1633.544451206226</v>
       </c>
       <c r="U25" t="n">
-        <v>1258.63682035972</v>
+        <v>1348.14292062907</v>
       </c>
       <c r="V25" t="n">
-        <v>992.6574751805441</v>
+        <v>1082.163575449894</v>
       </c>
       <c r="W25" t="n">
-        <v>992.6574751805441</v>
+        <v>798.8331733810719</v>
       </c>
       <c r="X25" t="n">
-        <v>758.5771529635272</v>
+        <v>564.752851164055</v>
       </c>
       <c r="Y25" t="n">
-        <v>758.5771529635272</v>
+        <v>438.9670564847518</v>
       </c>
     </row>
     <row r="26">
@@ -6229,7 +6229,7 @@
         <v>369.457983324648</v>
       </c>
       <c r="K26" t="n">
-        <v>918.3042466513273</v>
+        <v>918.3042466513275</v>
       </c>
       <c r="L26" t="n">
         <v>1647.16750428966</v>
@@ -6244,7 +6244,7 @@
         <v>3940.919762416755</v>
       </c>
       <c r="P26" t="n">
-        <v>4503.744536857262</v>
+        <v>4503.744536857263</v>
       </c>
       <c r="Q26" t="n">
         <v>4849.773757223309</v>
@@ -6305,28 +6305,28 @@
         <v>98.12592469596522</v>
       </c>
       <c r="J27" t="n">
-        <v>98.12592469596522</v>
+        <v>286.6920084298987</v>
       </c>
       <c r="K27" t="n">
-        <v>138.3829088783776</v>
+        <v>735.3891046545375</v>
       </c>
       <c r="L27" t="n">
-        <v>222.6230438828966</v>
+        <v>1084.440648198467</v>
       </c>
       <c r="M27" t="n">
-        <v>333.5092723946694</v>
+        <v>1195.32687671024</v>
       </c>
       <c r="N27" t="n">
-        <v>1060.818710000182</v>
+        <v>1318.513552933684</v>
       </c>
       <c r="O27" t="n">
-        <v>1767.348551285798</v>
+        <v>1416.762428328319</v>
       </c>
       <c r="P27" t="n">
-        <v>2325.469342393241</v>
+        <v>1974.883219435762</v>
       </c>
       <c r="Q27" t="n">
-        <v>2337.332896054131</v>
+        <v>2311.190136275897</v>
       </c>
       <c r="R27" t="n">
         <v>2337.332896054131</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>736.8489026552859</v>
+        <v>646.8042405443975</v>
       </c>
       <c r="C28" t="n">
-        <v>566.6437847212751</v>
+        <v>476.5991226103868</v>
       </c>
       <c r="D28" t="n">
-        <v>411.0106716237898</v>
+        <v>476.5991226103868</v>
       </c>
       <c r="E28" t="n">
-        <v>255.4518594829923</v>
+        <v>321.0403104695893</v>
       </c>
       <c r="F28" t="n">
-        <v>98.12592469596522</v>
+        <v>321.0403104695893</v>
       </c>
       <c r="G28" t="n">
-        <v>98.12592469596522</v>
+        <v>153.4693782196601</v>
       </c>
       <c r="H28" t="n">
         <v>98.12592469596522</v>
@@ -6387,13 +6387,13 @@
         <v>115.6877784538227</v>
       </c>
       <c r="K28" t="n">
-        <v>275.3097452961382</v>
+        <v>275.3097452961381</v>
       </c>
       <c r="L28" t="n">
-        <v>538.9778690061851</v>
+        <v>538.977869006185</v>
       </c>
       <c r="M28" t="n">
-        <v>830.2209309440827</v>
+        <v>830.2209309440826</v>
       </c>
       <c r="N28" t="n">
         <v>1115.866536873026</v>
@@ -6408,28 +6408,28 @@
         <v>1633.544451206226</v>
       </c>
       <c r="R28" t="n">
-        <v>1540.359095329646</v>
+        <v>1633.544451206226</v>
       </c>
       <c r="S28" t="n">
-        <v>1540.359095329646</v>
+        <v>1633.544451206226</v>
       </c>
       <c r="T28" t="n">
-        <v>1428.499384598766</v>
+        <v>1400.744191881677</v>
       </c>
       <c r="U28" t="n">
-        <v>1428.499384598766</v>
+        <v>1115.342661304521</v>
       </c>
       <c r="V28" t="n">
-        <v>1428.499384598766</v>
+        <v>1115.342661304521</v>
       </c>
       <c r="W28" t="n">
-        <v>1145.168982529944</v>
+        <v>832.0122592356988</v>
       </c>
       <c r="X28" t="n">
-        <v>1145.168982529944</v>
+        <v>832.0122592356988</v>
       </c>
       <c r="Y28" t="n">
-        <v>922.0569213465872</v>
+        <v>832.0122592356988</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2495.972412945691</v>
+        <v>2416.346996123296</v>
       </c>
       <c r="C29" t="n">
-        <v>2102.796911448621</v>
+        <v>2023.171494626227</v>
       </c>
       <c r="D29" t="n">
-        <v>1717.355782665289</v>
+        <v>1637.730365842895</v>
       </c>
       <c r="E29" t="n">
-        <v>1314.772257781834</v>
+        <v>1235.146840959439</v>
       </c>
       <c r="F29" t="n">
-        <v>897.8778193118112</v>
+        <v>818.2524024894167</v>
       </c>
       <c r="G29" t="n">
-        <v>486.2379663375264</v>
+        <v>406.6125495151319</v>
       </c>
       <c r="H29" t="n">
-        <v>177.7513415183597</v>
+        <v>98.12592469596522</v>
       </c>
       <c r="I29" t="n">
         <v>98.12592469596522</v>
       </c>
       <c r="J29" t="n">
-        <v>369.4579833246471</v>
+        <v>369.457983324648</v>
       </c>
       <c r="K29" t="n">
-        <v>918.3042466513264</v>
+        <v>918.3042466513273</v>
       </c>
       <c r="L29" t="n">
-        <v>1647.167504289659</v>
+        <v>1647.16750428966</v>
       </c>
       <c r="M29" t="n">
         <v>2455.255338190779</v>
@@ -6490,25 +6490,25 @@
         <v>4906.296234798261</v>
       </c>
       <c r="S29" t="n">
-        <v>4774.485821317423</v>
+        <v>4788.355894253363</v>
       </c>
       <c r="T29" t="n">
-        <v>4557.651724735674</v>
+        <v>4571.521797671614</v>
       </c>
       <c r="U29" t="n">
-        <v>4302.02082737329</v>
+        <v>4315.890900309229</v>
       </c>
       <c r="V29" t="n">
-        <v>3959.914018076808</v>
+        <v>3973.784091012748</v>
       </c>
       <c r="W29" t="n">
-        <v>3588.914983045096</v>
+        <v>3602.785055981035</v>
       </c>
       <c r="X29" t="n">
-        <v>3199.462377978152</v>
+        <v>3213.332450914092</v>
       </c>
       <c r="Y29" t="n">
-        <v>2896.467158657088</v>
+        <v>2816.841741834693</v>
       </c>
     </row>
     <row r="30">
@@ -6542,22 +6542,22 @@
         <v>98.12592469596522</v>
       </c>
       <c r="J30" t="n">
-        <v>98.12592469596522</v>
+        <v>286.6920084298987</v>
       </c>
       <c r="K30" t="n">
-        <v>138.3829088783776</v>
+        <v>735.3891046545375</v>
       </c>
       <c r="L30" t="n">
-        <v>795.3488731695591</v>
+        <v>1392.355068945719</v>
       </c>
       <c r="M30" t="n">
-        <v>1297.450536619054</v>
+        <v>1545.912999667719</v>
       </c>
       <c r="N30" t="n">
-        <v>2160.933575778682</v>
+        <v>1669.099675891163</v>
       </c>
       <c r="O30" t="n">
-        <v>2259.182451173317</v>
+        <v>1767.348551285798</v>
       </c>
       <c r="P30" t="n">
         <v>2325.469342393241</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>527.6529297602309</v>
+        <v>247.5309032407299</v>
       </c>
       <c r="C31" t="n">
-        <v>527.6529297602309</v>
+        <v>247.5309032407299</v>
       </c>
       <c r="D31" t="n">
-        <v>527.6529297602309</v>
+        <v>247.5309032407299</v>
       </c>
       <c r="E31" t="n">
-        <v>527.6529297602309</v>
+        <v>247.5309032407299</v>
       </c>
       <c r="F31" t="n">
-        <v>527.6529297602309</v>
+        <v>247.5309032407299</v>
       </c>
       <c r="G31" t="n">
-        <v>360.0819975103018</v>
+        <v>247.5309032407299</v>
       </c>
       <c r="H31" t="n">
-        <v>210.6770189655372</v>
+        <v>98.12592469596522</v>
       </c>
       <c r="I31" t="n">
         <v>98.12592469596522</v>
@@ -6648,25 +6648,25 @@
         <v>1633.544451206226</v>
       </c>
       <c r="S31" t="n">
-        <v>1442.633314700127</v>
+        <v>1633.544451206226</v>
       </c>
       <c r="T31" t="n">
-        <v>1209.833055375578</v>
+        <v>1400.744191881677</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.833055375578</v>
+        <v>1115.342661304521</v>
       </c>
       <c r="V31" t="n">
-        <v>943.8537101964026</v>
+        <v>988.0536887099258</v>
       </c>
       <c r="W31" t="n">
-        <v>935.9730096348889</v>
+        <v>704.7232866411034</v>
       </c>
       <c r="X31" t="n">
-        <v>935.9730096348889</v>
+        <v>470.6429644240865</v>
       </c>
       <c r="Y31" t="n">
-        <v>712.8609484515322</v>
+        <v>247.5309032407299</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2495.972412945691</v>
+        <v>2416.346996123296</v>
       </c>
       <c r="C32" t="n">
-        <v>2102.796911448621</v>
+        <v>2023.171494626227</v>
       </c>
       <c r="D32" t="n">
-        <v>1717.355782665289</v>
+        <v>1637.730365842895</v>
       </c>
       <c r="E32" t="n">
-        <v>1314.772257781834</v>
+        <v>1235.146840959439</v>
       </c>
       <c r="F32" t="n">
-        <v>897.8778193118112</v>
+        <v>818.2524024894167</v>
       </c>
       <c r="G32" t="n">
-        <v>486.2379663375264</v>
+        <v>406.6125495151319</v>
       </c>
       <c r="H32" t="n">
-        <v>177.7513415183597</v>
+        <v>98.12592469596522</v>
       </c>
       <c r="I32" t="n">
         <v>98.12592469596522</v>
@@ -6742,10 +6742,10 @@
         <v>3588.914983045096</v>
       </c>
       <c r="X32" t="n">
-        <v>3292.957867736487</v>
+        <v>3213.332450914092</v>
       </c>
       <c r="Y32" t="n">
-        <v>2896.467158657088</v>
+        <v>2816.841741834693</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>98.12592469596522</v>
       </c>
       <c r="J33" t="n">
-        <v>98.12592469596522</v>
+        <v>286.6920084298987</v>
       </c>
       <c r="K33" t="n">
-        <v>138.3829088783776</v>
+        <v>735.3891046545375</v>
       </c>
       <c r="L33" t="n">
-        <v>795.3488731695591</v>
+        <v>1084.440648198467</v>
       </c>
       <c r="M33" t="n">
-        <v>1297.450536619054</v>
+        <v>1195.326876710239</v>
       </c>
       <c r="N33" t="n">
-        <v>2160.933575778682</v>
+        <v>1318.513552933684</v>
       </c>
       <c r="O33" t="n">
-        <v>2259.182451173317</v>
+        <v>1416.762428328319</v>
       </c>
       <c r="P33" t="n">
-        <v>2325.469342393241</v>
+        <v>1974.883219435762</v>
       </c>
       <c r="Q33" t="n">
-        <v>2337.332896054131</v>
+        <v>2311.190136275897</v>
       </c>
       <c r="R33" t="n">
         <v>2337.332896054131</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4113.363761236778</v>
+        <v>98.12592469596522</v>
       </c>
       <c r="C34" t="n">
-        <v>4113.363761236778</v>
+        <v>98.12592469596522</v>
       </c>
       <c r="D34" t="n">
-        <v>3957.730648139293</v>
+        <v>98.12592469596522</v>
       </c>
       <c r="E34" t="n">
-        <v>3957.730648139293</v>
+        <v>98.12592469596522</v>
       </c>
       <c r="F34" t="n">
-        <v>3800.404713352266</v>
+        <v>98.12592469596522</v>
       </c>
       <c r="G34" t="n">
-        <v>3632.833781102337</v>
+        <v>98.12592469596522</v>
       </c>
       <c r="H34" t="n">
-        <v>3483.428802557572</v>
+        <v>98.12592469596522</v>
       </c>
       <c r="I34" t="n">
-        <v>3370.877708288</v>
+        <v>98.12592469596522</v>
       </c>
       <c r="J34" t="n">
-        <v>3388.439562045858</v>
+        <v>115.6877784538227</v>
       </c>
       <c r="K34" t="n">
-        <v>3548.061528888173</v>
+        <v>275.3097452961382</v>
       </c>
       <c r="L34" t="n">
-        <v>3811.72965259822</v>
+        <v>538.9778690061851</v>
       </c>
       <c r="M34" t="n">
-        <v>4102.972714536118</v>
+        <v>830.2209309440827</v>
       </c>
       <c r="N34" t="n">
-        <v>4388.618320465062</v>
+        <v>1115.866536873026</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.957760533917</v>
+        <v>1373.205976941882</v>
       </c>
       <c r="P34" t="n">
-        <v>4846.810237730175</v>
+        <v>1574.058454138139</v>
       </c>
       <c r="Q34" t="n">
-        <v>4906.296234798261</v>
+        <v>1633.544451206226</v>
       </c>
       <c r="R34" t="n">
-        <v>4813.110878921681</v>
+        <v>1633.544451206226</v>
       </c>
       <c r="S34" t="n">
-        <v>4813.110878921681</v>
+        <v>1442.633314700127</v>
       </c>
       <c r="T34" t="n">
-        <v>4662.673508484776</v>
+        <v>1209.833055375578</v>
       </c>
       <c r="U34" t="n">
-        <v>4662.673508484776</v>
+        <v>924.4315247984225</v>
       </c>
       <c r="V34" t="n">
-        <v>4396.6941633056</v>
+        <v>658.4521796192467</v>
       </c>
       <c r="W34" t="n">
-        <v>4113.363761236778</v>
+        <v>375.1217775504244</v>
       </c>
       <c r="X34" t="n">
-        <v>4113.363761236778</v>
+        <v>141.0414553334075</v>
       </c>
       <c r="Y34" t="n">
-        <v>4113.363761236778</v>
+        <v>98.12592469596522</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1259.719891784654</v>
+        <v>1637.068973158487</v>
       </c>
       <c r="C35" t="n">
-        <v>1259.719891784654</v>
+        <v>1243.893471661418</v>
       </c>
       <c r="D35" t="n">
-        <v>947.2946574466366</v>
+        <v>858.4523428780852</v>
       </c>
       <c r="E35" t="n">
-        <v>544.7111325631812</v>
+        <v>858.4523428780852</v>
       </c>
       <c r="F35" t="n">
-        <v>544.7111325631812</v>
+        <v>441.557904408063</v>
       </c>
       <c r="G35" t="n">
-        <v>133.0712795888963</v>
+        <v>441.557904408063</v>
       </c>
       <c r="H35" t="n">
         <v>133.0712795888963</v>
@@ -6937,25 +6937,25 @@
         <v>53.44586276650187</v>
       </c>
       <c r="J35" t="n">
-        <v>63.62510892343386</v>
+        <v>324.7779213951846</v>
       </c>
       <c r="K35" t="n">
-        <v>612.4713722501132</v>
+        <v>785.6597130962879</v>
       </c>
       <c r="L35" t="n">
-        <v>1273.863923985574</v>
+        <v>869.486990982905</v>
       </c>
       <c r="M35" t="n">
-        <v>1387.723056760363</v>
+        <v>983.3461237576939</v>
       </c>
       <c r="N35" t="n">
-        <v>1987.920848897158</v>
+        <v>1102.046591783079</v>
       </c>
       <c r="O35" t="n">
-        <v>2091.338415093696</v>
+        <v>1763.439143518539</v>
       </c>
       <c r="P35" t="n">
-        <v>2654.163189534203</v>
+        <v>2326.263917959046</v>
       </c>
       <c r="Q35" t="n">
         <v>2672.293138325093</v>
@@ -6964,25 +6964,25 @@
         <v>2672.293138325093</v>
       </c>
       <c r="S35" t="n">
-        <v>2672.293138325093</v>
+        <v>2540.482724844255</v>
       </c>
       <c r="T35" t="n">
-        <v>2672.293138325093</v>
+        <v>2323.648628262506</v>
       </c>
       <c r="U35" t="n">
-        <v>2416.662240962709</v>
+        <v>2068.017730900121</v>
       </c>
       <c r="V35" t="n">
-        <v>2416.662240962709</v>
+        <v>1725.91092160364</v>
       </c>
       <c r="W35" t="n">
-        <v>2045.663205930996</v>
+        <v>1725.91092160364</v>
       </c>
       <c r="X35" t="n">
-        <v>1656.210600864053</v>
+        <v>1725.91092160364</v>
       </c>
       <c r="Y35" t="n">
-        <v>1259.719891784654</v>
+        <v>1725.91092160364</v>
       </c>
     </row>
     <row r="36">
@@ -7019,25 +7019,25 @@
         <v>242.0119465004353</v>
       </c>
       <c r="K36" t="n">
-        <v>282.2689306828477</v>
+        <v>690.7090427250741</v>
       </c>
       <c r="L36" t="n">
-        <v>939.2348949740291</v>
+        <v>774.9491777295932</v>
       </c>
       <c r="M36" t="n">
-        <v>1429.923161284949</v>
+        <v>885.8354062413661</v>
       </c>
       <c r="N36" t="n">
-        <v>1553.109837508393</v>
+        <v>1009.022082464811</v>
       </c>
       <c r="O36" t="n">
-        <v>2214.502389243854</v>
+        <v>1372.082366398856</v>
       </c>
       <c r="P36" t="n">
-        <v>2280.789280463778</v>
+        <v>1930.203157506299</v>
       </c>
       <c r="Q36" t="n">
-        <v>2292.652834124668</v>
+        <v>2266.510074346434</v>
       </c>
       <c r="R36" t="n">
         <v>2292.652834124668</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1697.200866738115</v>
+        <v>53.44586276650187</v>
       </c>
       <c r="C37" t="n">
-        <v>1697.200866738115</v>
+        <v>53.44586276650187</v>
       </c>
       <c r="D37" t="n">
-        <v>1697.200866738115</v>
+        <v>53.44586276650187</v>
       </c>
       <c r="E37" t="n">
-        <v>1697.200866738115</v>
+        <v>53.44586276650187</v>
       </c>
       <c r="F37" t="n">
-        <v>1566.401616879099</v>
+        <v>53.44586276650187</v>
       </c>
       <c r="G37" t="n">
-        <v>1398.830684629169</v>
+        <v>53.44586276650187</v>
       </c>
       <c r="H37" t="n">
-        <v>1249.425706084405</v>
+        <v>53.44586276650187</v>
       </c>
       <c r="I37" t="n">
-        <v>1136.874611814833</v>
+        <v>53.44586276650187</v>
       </c>
       <c r="J37" t="n">
-        <v>1154.43646557269</v>
+        <v>71.00771652435935</v>
       </c>
       <c r="K37" t="n">
-        <v>1314.058432415006</v>
+        <v>230.6296833666748</v>
       </c>
       <c r="L37" t="n">
-        <v>1577.726556125053</v>
+        <v>494.2978070767217</v>
       </c>
       <c r="M37" t="n">
-        <v>1868.96961806295</v>
+        <v>785.5408690146194</v>
       </c>
       <c r="N37" t="n">
-        <v>2154.615223991894</v>
+        <v>1071.186474943563</v>
       </c>
       <c r="O37" t="n">
-        <v>2411.95466406075</v>
+        <v>1328.525915012419</v>
       </c>
       <c r="P37" t="n">
-        <v>2612.807141257007</v>
+        <v>1529.378392208676</v>
       </c>
       <c r="Q37" t="n">
-        <v>2672.293138325093</v>
+        <v>1588.864389276763</v>
       </c>
       <c r="R37" t="n">
-        <v>2672.293138325093</v>
+        <v>1588.864389276763</v>
       </c>
       <c r="S37" t="n">
-        <v>2481.382001818995</v>
+        <v>1578.149783316578</v>
       </c>
       <c r="T37" t="n">
-        <v>2248.581742494446</v>
+        <v>1345.349523992029</v>
       </c>
       <c r="U37" t="n">
-        <v>1963.18021191729</v>
+        <v>1059.947993414874</v>
       </c>
       <c r="V37" t="n">
-        <v>1697.200866738115</v>
+        <v>793.9686482356979</v>
       </c>
       <c r="W37" t="n">
-        <v>1697.200866738115</v>
+        <v>510.6382461668754</v>
       </c>
       <c r="X37" t="n">
-        <v>1697.200866738115</v>
+        <v>276.5579239498585</v>
       </c>
       <c r="Y37" t="n">
-        <v>1697.200866738115</v>
+        <v>53.44586276650187</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>568.9685724255853</v>
+        <v>1552.188970840355</v>
       </c>
       <c r="C38" t="n">
-        <v>568.9685724255853</v>
+        <v>1159.013469343286</v>
       </c>
       <c r="D38" t="n">
-        <v>535.6548044723518</v>
+        <v>773.5723405599533</v>
       </c>
       <c r="E38" t="n">
-        <v>133.0712795888963</v>
+        <v>773.5723405599533</v>
       </c>
       <c r="F38" t="n">
-        <v>133.0712795888963</v>
+        <v>773.5723405599533</v>
       </c>
       <c r="G38" t="n">
-        <v>133.0712795888963</v>
+        <v>361.9324875856685</v>
       </c>
       <c r="H38" t="n">
-        <v>133.0712795888963</v>
+        <v>53.44586276650188</v>
       </c>
       <c r="I38" t="n">
-        <v>53.44586276650187</v>
+        <v>53.44586276650188</v>
       </c>
       <c r="J38" t="n">
         <v>324.7779213951846</v>
@@ -7180,46 +7180,46 @@
         <v>873.6241847218639</v>
       </c>
       <c r="L38" t="n">
-        <v>1427.461976521827</v>
+        <v>1325.233340136837</v>
       </c>
       <c r="M38" t="n">
-        <v>1541.321109296616</v>
+        <v>1439.092472911626</v>
       </c>
       <c r="N38" t="n">
-        <v>1660.021577322001</v>
+        <v>2100.485024647087</v>
       </c>
       <c r="O38" t="n">
-        <v>1763.439143518539</v>
+        <v>2203.902590843626</v>
       </c>
       <c r="P38" t="n">
-        <v>2326.263917959046</v>
+        <v>2269.741440384095</v>
       </c>
       <c r="Q38" t="n">
-        <v>2672.293138325093</v>
+        <v>2615.770660750142</v>
       </c>
       <c r="R38" t="n">
-        <v>2672.293138325093</v>
+        <v>2672.293138325094</v>
       </c>
       <c r="S38" t="n">
-        <v>2540.482724844255</v>
+        <v>2540.482724844256</v>
       </c>
       <c r="T38" t="n">
-        <v>2323.648628262506</v>
+        <v>2323.648628262507</v>
       </c>
       <c r="U38" t="n">
-        <v>2068.017730900121</v>
+        <v>2068.017730900122</v>
       </c>
       <c r="V38" t="n">
-        <v>1725.91092160364</v>
+        <v>2068.017730900122</v>
       </c>
       <c r="W38" t="n">
-        <v>1354.911886571927</v>
+        <v>2068.017730900122</v>
       </c>
       <c r="X38" t="n">
-        <v>965.4592815049842</v>
+        <v>2068.017730900122</v>
       </c>
       <c r="Y38" t="n">
-        <v>568.9685724255853</v>
+        <v>1952.683716551752</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>74.77884553658612</v>
       </c>
       <c r="I39" t="n">
-        <v>53.44586276650187</v>
+        <v>53.44586276650188</v>
       </c>
       <c r="J39" t="n">
-        <v>53.44586276650187</v>
+        <v>242.0119465004353</v>
       </c>
       <c r="K39" t="n">
-        <v>502.1429589911407</v>
+        <v>690.7090427250741</v>
       </c>
       <c r="L39" t="n">
-        <v>586.3830939956597</v>
+        <v>774.9491777295932</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.78957455901</v>
+        <v>1150.646814780776</v>
       </c>
       <c r="N39" t="n">
-        <v>1299.976250782455</v>
+        <v>1273.833491004221</v>
       </c>
       <c r="O39" t="n">
-        <v>1398.22512617709</v>
+        <v>1372.082366398856</v>
       </c>
       <c r="P39" t="n">
-        <v>1956.345917284533</v>
+        <v>1930.203157506299</v>
       </c>
       <c r="Q39" t="n">
-        <v>2292.652834124668</v>
+        <v>2266.510074346434</v>
       </c>
       <c r="R39" t="n">
         <v>2292.652834124668</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1510.712785154345</v>
+        <v>287.2725299100431</v>
       </c>
       <c r="C40" t="n">
-        <v>1510.712785154345</v>
+        <v>287.2725299100431</v>
       </c>
       <c r="D40" t="n">
-        <v>1449.759358742657</v>
+        <v>287.2725299100431</v>
       </c>
       <c r="E40" t="n">
-        <v>1294.20054660186</v>
+        <v>287.2725299100431</v>
       </c>
       <c r="F40" t="n">
-        <v>1136.874611814833</v>
+        <v>287.2725299100431</v>
       </c>
       <c r="G40" t="n">
-        <v>1136.874611814833</v>
+        <v>287.2725299100431</v>
       </c>
       <c r="H40" t="n">
-        <v>1136.874611814833</v>
+        <v>137.8675513652784</v>
       </c>
       <c r="I40" t="n">
-        <v>1136.874611814833</v>
+        <v>53.44586276650188</v>
       </c>
       <c r="J40" t="n">
-        <v>1154.43646557269</v>
+        <v>71.00771652435935</v>
       </c>
       <c r="K40" t="n">
-        <v>1314.058432415006</v>
+        <v>230.6296833666748</v>
       </c>
       <c r="L40" t="n">
-        <v>1577.726556125053</v>
+        <v>494.2978070767217</v>
       </c>
       <c r="M40" t="n">
-        <v>1868.96961806295</v>
+        <v>785.5408690146194</v>
       </c>
       <c r="N40" t="n">
-        <v>2154.615223991894</v>
+        <v>1071.186474943563</v>
       </c>
       <c r="O40" t="n">
-        <v>2411.95466406075</v>
+        <v>1328.525915012419</v>
       </c>
       <c r="P40" t="n">
-        <v>2612.807141257007</v>
+        <v>1529.378392208676</v>
       </c>
       <c r="Q40" t="n">
-        <v>2672.293138325093</v>
+        <v>1588.864389276763</v>
       </c>
       <c r="R40" t="n">
-        <v>2672.293138325093</v>
+        <v>1588.864389276763</v>
       </c>
       <c r="S40" t="n">
-        <v>2481.382001818995</v>
+        <v>1588.864389276763</v>
       </c>
       <c r="T40" t="n">
-        <v>2481.382001818995</v>
+        <v>1356.064129952214</v>
       </c>
       <c r="U40" t="n">
-        <v>2195.980471241839</v>
+        <v>1070.662599375058</v>
       </c>
       <c r="V40" t="n">
-        <v>1930.001126062663</v>
+        <v>804.6832541958823</v>
       </c>
       <c r="W40" t="n">
-        <v>1930.001126062663</v>
+        <v>521.35285212706</v>
       </c>
       <c r="X40" t="n">
-        <v>1695.920803845647</v>
+        <v>287.2725299100431</v>
       </c>
       <c r="Y40" t="n">
-        <v>1695.920803845647</v>
+        <v>287.2725299100431</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>926.9141725891236</v>
+        <v>1402.842689590164</v>
       </c>
       <c r="C41" t="n">
-        <v>533.7386710920541</v>
+        <v>1402.842689590164</v>
       </c>
       <c r="D41" t="n">
-        <v>148.2975423087219</v>
+        <v>1017.401560806832</v>
       </c>
       <c r="E41" t="n">
-        <v>148.2975423087219</v>
+        <v>614.8180359233766</v>
       </c>
       <c r="F41" t="n">
-        <v>148.2975423087219</v>
+        <v>197.9235974533543</v>
       </c>
       <c r="G41" t="n">
-        <v>53.44586276650187</v>
+        <v>53.44586276650188</v>
       </c>
       <c r="H41" t="n">
-        <v>53.44586276650187</v>
+        <v>53.44586276650188</v>
       </c>
       <c r="I41" t="n">
-        <v>53.44586276650187</v>
+        <v>53.44586276650188</v>
       </c>
       <c r="J41" t="n">
-        <v>324.7779213951846</v>
+        <v>63.62510892343387</v>
       </c>
       <c r="K41" t="n">
-        <v>373.014009546957</v>
+        <v>111.8611970752063</v>
       </c>
       <c r="L41" t="n">
-        <v>604.1466847873525</v>
+        <v>773.253748810667</v>
       </c>
       <c r="M41" t="n">
-        <v>1265.539236522813</v>
+        <v>1434.646300546128</v>
       </c>
       <c r="N41" t="n">
-        <v>1926.931788258274</v>
+        <v>2096.038852281588</v>
       </c>
       <c r="O41" t="n">
-        <v>2588.324339993734</v>
+        <v>2588.324339993735</v>
       </c>
       <c r="P41" t="n">
-        <v>2654.163189534203</v>
+        <v>2654.163189534204</v>
       </c>
       <c r="Q41" t="n">
-        <v>2672.293138325093</v>
+        <v>2672.293138325094</v>
       </c>
       <c r="R41" t="n">
-        <v>2672.293138325093</v>
+        <v>2672.293138325094</v>
       </c>
       <c r="S41" t="n">
-        <v>2672.293138325093</v>
+        <v>2672.293138325094</v>
       </c>
       <c r="T41" t="n">
-        <v>2455.459041743344</v>
+        <v>2455.459041743345</v>
       </c>
       <c r="U41" t="n">
-        <v>2455.459041743344</v>
+        <v>2199.82814438096</v>
       </c>
       <c r="V41" t="n">
-        <v>2113.352232446863</v>
+        <v>2199.82814438096</v>
       </c>
       <c r="W41" t="n">
-        <v>2113.352232446863</v>
+        <v>2199.82814438096</v>
       </c>
       <c r="X41" t="n">
-        <v>1723.899627379919</v>
+        <v>2199.82814438096</v>
       </c>
       <c r="Y41" t="n">
-        <v>1327.408918300521</v>
+        <v>1803.337435301561</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>74.77884553658612</v>
       </c>
       <c r="I42" t="n">
-        <v>53.44586276650187</v>
+        <v>53.44586276650188</v>
       </c>
       <c r="J42" t="n">
-        <v>53.44586276650187</v>
+        <v>242.0119465004353</v>
       </c>
       <c r="K42" t="n">
-        <v>93.70284694891421</v>
+        <v>690.7090427250741</v>
       </c>
       <c r="L42" t="n">
-        <v>177.9429819534333</v>
+        <v>1039.760586269003</v>
       </c>
       <c r="M42" t="n">
-        <v>399.883385885414</v>
+        <v>1150.646814780776</v>
       </c>
       <c r="N42" t="n">
-        <v>1061.275937620875</v>
+        <v>1273.833491004221</v>
       </c>
       <c r="O42" t="n">
-        <v>1722.668489356335</v>
+        <v>1372.082366398856</v>
       </c>
       <c r="P42" t="n">
-        <v>2280.789280463778</v>
+        <v>1930.203157506299</v>
       </c>
       <c r="Q42" t="n">
-        <v>2292.652834124668</v>
+        <v>2266.510074346434</v>
       </c>
       <c r="R42" t="n">
         <v>2292.652834124668</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>358.4839544087517</v>
+        <v>879.7514628689594</v>
       </c>
       <c r="C43" t="n">
-        <v>358.4839544087517</v>
+        <v>838.9396335865054</v>
       </c>
       <c r="D43" t="n">
-        <v>202.8508413112665</v>
+        <v>683.3065204890202</v>
       </c>
       <c r="E43" t="n">
-        <v>202.8508413112665</v>
+        <v>527.7477083482227</v>
       </c>
       <c r="F43" t="n">
-        <v>202.8508413112665</v>
+        <v>370.4217735611957</v>
       </c>
       <c r="G43" t="n">
         <v>202.8508413112665</v>
       </c>
       <c r="H43" t="n">
-        <v>53.44586276650187</v>
+        <v>53.44586276650188</v>
       </c>
       <c r="I43" t="n">
-        <v>53.44586276650187</v>
+        <v>53.44586276650188</v>
       </c>
       <c r="J43" t="n">
         <v>71.00771652435935</v>
@@ -7596,25 +7596,25 @@
         <v>1588.864389276763</v>
       </c>
       <c r="S43" t="n">
-        <v>1588.864389276763</v>
+        <v>1397.953252770664</v>
       </c>
       <c r="T43" t="n">
-        <v>1356.064129952214</v>
+        <v>1165.152993446115</v>
       </c>
       <c r="U43" t="n">
-        <v>1070.662599375058</v>
+        <v>879.7514628689594</v>
       </c>
       <c r="V43" t="n">
-        <v>1070.662599375058</v>
+        <v>879.7514628689594</v>
       </c>
       <c r="W43" t="n">
-        <v>787.3321973062357</v>
+        <v>879.7514628689594</v>
       </c>
       <c r="X43" t="n">
-        <v>553.2518750892187</v>
+        <v>879.7514628689594</v>
       </c>
       <c r="Y43" t="n">
-        <v>358.4839544087517</v>
+        <v>879.7514628689594</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2063.180309374666</v>
+        <v>773.5723405599533</v>
       </c>
       <c r="C44" t="n">
-        <v>1670.004807877597</v>
+        <v>773.5723405599533</v>
       </c>
       <c r="D44" t="n">
-        <v>1284.563679094264</v>
+        <v>773.5723405599533</v>
       </c>
       <c r="E44" t="n">
-        <v>881.9801542108089</v>
+        <v>773.5723405599533</v>
       </c>
       <c r="F44" t="n">
-        <v>465.0857157407867</v>
+        <v>773.5723405599533</v>
       </c>
       <c r="G44" t="n">
-        <v>53.44586276650187</v>
+        <v>361.9324875856685</v>
       </c>
       <c r="H44" t="n">
-        <v>53.44586276650187</v>
+        <v>53.44586276650188</v>
       </c>
       <c r="I44" t="n">
-        <v>53.44586276650187</v>
+        <v>53.44586276650188</v>
       </c>
       <c r="J44" t="n">
         <v>324.7779213951846</v>
       </c>
       <c r="K44" t="n">
-        <v>873.6241847218639</v>
+        <v>373.014009546957</v>
       </c>
       <c r="L44" t="n">
-        <v>1535.016736457324</v>
+        <v>456.8412874335742</v>
       </c>
       <c r="M44" t="n">
-        <v>2196.409288192785</v>
+        <v>570.7004202083631</v>
       </c>
       <c r="N44" t="n">
-        <v>2428.384296222243</v>
+        <v>1045.524114208127</v>
       </c>
       <c r="O44" t="n">
-        <v>2531.801862418782</v>
+        <v>1706.916665943588</v>
       </c>
       <c r="P44" t="n">
-        <v>2597.640711959251</v>
+        <v>2269.741440384095</v>
       </c>
       <c r="Q44" t="n">
-        <v>2615.770660750141</v>
+        <v>2615.770660750142</v>
       </c>
       <c r="R44" t="n">
-        <v>2672.293138325093</v>
+        <v>2672.293138325094</v>
       </c>
       <c r="S44" t="n">
-        <v>2672.293138325093</v>
+        <v>2672.293138325094</v>
       </c>
       <c r="T44" t="n">
-        <v>2672.293138325093</v>
+        <v>2455.459041743345</v>
       </c>
       <c r="U44" t="n">
-        <v>2463.675055086063</v>
+        <v>2199.82814438096</v>
       </c>
       <c r="V44" t="n">
-        <v>2463.675055086063</v>
+        <v>1857.721335084479</v>
       </c>
       <c r="W44" t="n">
-        <v>2463.675055086063</v>
+        <v>1486.722300052766</v>
       </c>
       <c r="X44" t="n">
-        <v>2463.675055086063</v>
+        <v>1174.06708627135</v>
       </c>
       <c r="Y44" t="n">
-        <v>2463.675055086063</v>
+        <v>1174.06708627135</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>74.77884553658612</v>
       </c>
       <c r="I45" t="n">
-        <v>53.44586276650187</v>
+        <v>53.44586276650188</v>
       </c>
       <c r="J45" t="n">
         <v>242.0119465004353</v>
       </c>
       <c r="K45" t="n">
-        <v>282.2689306828477</v>
+        <v>690.7090427250741</v>
       </c>
       <c r="L45" t="n">
-        <v>366.5090656873667</v>
+        <v>774.9491777295932</v>
       </c>
       <c r="M45" t="n">
-        <v>477.3952941991395</v>
+        <v>885.8354062413661</v>
       </c>
       <c r="N45" t="n">
-        <v>1138.7878459346</v>
+        <v>1009.022082464811</v>
       </c>
       <c r="O45" t="n">
         <v>1398.22512617709</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>951.4907278560772</v>
+        <v>613.7721176897836</v>
       </c>
       <c r="C46" t="n">
-        <v>951.4907278560772</v>
+        <v>613.7721176897836</v>
       </c>
       <c r="D46" t="n">
-        <v>795.857614758592</v>
+        <v>458.1390045922984</v>
       </c>
       <c r="E46" t="n">
-        <v>640.2988026177945</v>
+        <v>458.1390045922984</v>
       </c>
       <c r="F46" t="n">
-        <v>482.9728678307675</v>
+        <v>300.8130698052713</v>
       </c>
       <c r="G46" t="n">
-        <v>315.4019355808384</v>
+        <v>202.8508413112665</v>
       </c>
       <c r="H46" t="n">
-        <v>165.9969570360738</v>
+        <v>53.44586276650188</v>
       </c>
       <c r="I46" t="n">
-        <v>53.44586276650187</v>
+        <v>53.44586276650188</v>
       </c>
       <c r="J46" t="n">
         <v>71.00771652435935</v>
@@ -7833,25 +7833,25 @@
         <v>1588.864389276763</v>
       </c>
       <c r="S46" t="n">
-        <v>1588.864389276763</v>
+        <v>1397.953252770664</v>
       </c>
       <c r="T46" t="n">
-        <v>1588.864389276763</v>
+        <v>1165.152993446115</v>
       </c>
       <c r="U46" t="n">
-        <v>1500.800475104075</v>
+        <v>879.7514628689594</v>
       </c>
       <c r="V46" t="n">
-        <v>1234.8211299249</v>
+        <v>613.7721176897836</v>
       </c>
       <c r="W46" t="n">
-        <v>951.4907278560772</v>
+        <v>613.7721176897836</v>
       </c>
       <c r="X46" t="n">
-        <v>951.4907278560772</v>
+        <v>613.7721176897836</v>
       </c>
       <c r="Y46" t="n">
-        <v>951.4907278560772</v>
+        <v>613.7721176897836</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>129.8911706504834</v>
       </c>
       <c r="K2" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>165.9736638158137</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>162.4505456830493</v>
       </c>
       <c r="N2" t="n">
-        <v>161.3298240459214</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
-        <v>162.2893315094184</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
-        <v>163.0269413262472</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>157.2241925037142</v>
@@ -8060,25 +8060,25 @@
         <v>95.16995141865534</v>
       </c>
       <c r="K3" t="n">
-        <v>101.8082680414706</v>
+        <v>102.3224294186553</v>
       </c>
       <c r="L3" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>105.1126161346339</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>97.58344556230392</v>
       </c>
       <c r="O3" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>99.80885890463665</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.713647241236</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8139,22 +8139,22 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K4" t="n">
-        <v>96.58411189616999</v>
+        <v>83.85861781084799</v>
       </c>
       <c r="L4" t="n">
         <v>87.67503958280489</v>
       </c>
       <c r="M4" t="n">
-        <v>103.0272536512653</v>
+        <v>102.5130922740805</v>
       </c>
       <c r="N4" t="n">
         <v>95.72109798772357</v>
       </c>
       <c r="O4" t="n">
-        <v>89.9967499936978</v>
+        <v>102.7222440790198</v>
       </c>
       <c r="P4" t="n">
-        <v>101.7345353400832</v>
+        <v>102.2486967172679</v>
       </c>
       <c r="Q4" t="n">
         <v>98.47825105913979</v>
@@ -8224,19 +8224,19 @@
         <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>162.4505456830493</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>161.8439854231061</v>
+        <v>161.3298240459214</v>
       </c>
       <c r="O5" t="n">
-        <v>161.7751701322337</v>
+        <v>162.2893315094184</v>
       </c>
       <c r="P5" t="n">
         <v>163.0269413262472</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>157.2241925037142</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8294,28 +8294,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>94.65579004147062</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>102.3224294186553</v>
       </c>
       <c r="L6" t="n">
         <v>102.7858409422402</v>
       </c>
       <c r="M6" t="n">
-        <v>104.5984547574492</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>98.09760693948866</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>105.4130529742109</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>103.713647241236</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8376,7 +8376,7 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K7" t="n">
-        <v>96.06995051898527</v>
+        <v>83.85861781084799</v>
       </c>
       <c r="L7" t="n">
         <v>87.67503958280489</v>
@@ -8391,7 +8391,7 @@
         <v>102.7222440790198</v>
       </c>
       <c r="P7" t="n">
-        <v>89.52320263194594</v>
+        <v>101.7345353400832</v>
       </c>
       <c r="Q7" t="n">
         <v>98.47825105913979</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>130.4053320276681</v>
       </c>
       <c r="K8" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>165.9736638158137</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
-        <v>161.9363843058645</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
-        <v>161.8439854231061</v>
+        <v>161.3298240459214</v>
       </c>
       <c r="O8" t="n">
-        <v>162.2893315094184</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>163.0269413262472</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>157.2241925037142</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8531,22 +8531,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>95.16995141865534</v>
       </c>
       <c r="K9" t="n">
-        <v>101.8082680414706</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>105.1126161346339</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
-        <v>92.68755888888889</v>
+        <v>104.8988915970262</v>
       </c>
       <c r="P9" t="n">
         <v>99.80885890463665</v>
@@ -8613,13 +8613,13 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K10" t="n">
-        <v>96.58411189616999</v>
+        <v>83.85861781084799</v>
       </c>
       <c r="L10" t="n">
-        <v>87.67503958280489</v>
+        <v>100.4005336681269</v>
       </c>
       <c r="M10" t="n">
-        <v>99.05632826392807</v>
+        <v>90.30175956594327</v>
       </c>
       <c r="N10" t="n">
         <v>95.72109798772357</v>
@@ -8628,10 +8628,10 @@
         <v>102.7222440790198</v>
       </c>
       <c r="P10" t="n">
-        <v>89.52320263194594</v>
+        <v>101.7345353400832</v>
       </c>
       <c r="Q10" t="n">
-        <v>101.9350150692923</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8695,25 +8695,25 @@
         <v>505.666843611017</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>34.18962842219088</v>
       </c>
       <c r="M11" t="n">
-        <v>6.409524613013787</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>451.3268055517102</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>466.7640801263021</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
-        <v>45.42420330998195</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,28 +8771,28 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>486.1352227445038</v>
+        <v>267.4862712519306</v>
       </c>
       <c r="M12" t="n">
-        <v>459.2199767775809</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>88.82423839621582</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
-        <v>44.60697684683822</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>486.552250136324</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>456.2170431785747</v>
+        <v>73.09239190690587</v>
       </c>
       <c r="N14" t="n">
-        <v>451.3268055517101</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>299.8618747038696</v>
+        <v>466.7640801263021</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
-        <v>45.42420330998195</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>6.231223480599965</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>15.7313409560024</v>
+        <v>267.4862712519307</v>
       </c>
       <c r="M15" t="n">
-        <v>459.2199767775808</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>446.7952821193267</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>471.9849799262048</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
         <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
-        <v>44.60697684683822</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>486.5522501363239</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>437.9481601547022</v>
       </c>
       <c r="N17" t="n">
-        <v>393.9765232672119</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>466.7640801263021</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>502.0059847475129</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294513</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>45.42420330998195</v>
+        <v>45.42420330998193</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,22 +9242,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>6.231223480599965</v>
+        <v>6.231223480599951</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>486.1352227445038</v>
       </c>
       <c r="M18" t="n">
-        <v>459.2199767775809</v>
+        <v>459.2199767775808</v>
       </c>
       <c r="N18" t="n">
-        <v>293.4452728649518</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>471.9849799262048</v>
+        <v>279.2950300466521</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L20" t="n">
-        <v>393.9765232672119</v>
+        <v>34.18962842219113</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>466.7640801263021</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>502.0059847475129</v>
@@ -9424,7 +9424,7 @@
         <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
-        <v>45.42420330998195</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,25 +9479,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>6.231223480599965</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>459.2199767775809</v>
+        <v>199.6353252114475</v>
       </c>
       <c r="N21" t="n">
-        <v>293.4452728649527</v>
+        <v>446.7952821193266</v>
       </c>
       <c r="O21" t="n">
-        <v>471.9849799262048</v>
+        <v>471.9849799262047</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9719,28 +9719,28 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>267.4862712519296</v>
       </c>
       <c r="M24" t="n">
-        <v>204.6963143472619</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
-        <v>44.60697684683822</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>6.231223480599937</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>267.4862712519296</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>610.2250114970384</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
-        <v>44.6069768468382</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>263.7907196684342</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
         <v>505.666843611017</v>
@@ -10190,25 +10190,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>6.231223480599937</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>395.1671059976986</v>
+        <v>43.10272950527981</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>6.231223480599937</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>267.4862712519293</v>
       </c>
       <c r="M33" t="n">
-        <v>395.1671059976986</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
-        <v>44.6069768468382</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
-        <v>505.666843611017</v>
+        <v>416.813841969021</v>
       </c>
       <c r="L35" t="n">
-        <v>583.3992665139833</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>486.3609334458686</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>563.6110965039614</v>
       </c>
       <c r="P35" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
         <v>45.42420330998191</v>
@@ -10667,28 +10667,28 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>383.6384220193405</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>568.8319963038641</v>
+        <v>267.4862712519294</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
-        <v>44.6069768468382</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,25 +10828,25 @@
         <v>505.666843611017</v>
       </c>
       <c r="L38" t="n">
-        <v>474.7580948619653</v>
+        <v>371.4968459882387</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>548.1738219293695</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>502.0059847475129</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
-        <v>45.42420330998191</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>6.231223480599937</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10910,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>484.3638909611896</v>
+        <v>267.4862712519294</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
-        <v>44.6069768468382</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>263.7907196684351</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>148.7933306603821</v>
+        <v>583.3992665139834</v>
       </c>
       <c r="M41" t="n">
-        <v>553.064059556234</v>
+        <v>553.0640595562342</v>
       </c>
       <c r="N41" t="n">
         <v>548.1738219293695</v>
       </c>
       <c r="O41" t="n">
-        <v>563.6110965039614</v>
+        <v>392.7958803187954</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>6.231223480599937</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>267.4862712519295</v>
       </c>
       <c r="M42" t="n">
-        <v>112.1759347678868</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>543.642298496986</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>568.8319963038641</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
-        <v>44.6069768468382</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,25 +11299,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>505.666843611017</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>583.3992665139833</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>553.064059556234</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>114.418727276842</v>
+        <v>359.7204302771505</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>563.6110965039616</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11378,7 +11378,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,10 +11387,10 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>543.642298496986</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>162.8165705533883</v>
+        <v>293.8930993107516</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>59.54420543718567</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>169.3119987517808</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>305.4017585709749</v>
       </c>
       <c r="I11" t="n">
-        <v>78.82916265417056</v>
+        <v>78.82916265417055</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>130.4923093460296</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>214.6657556159317</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>253.0745883887606</v>
@@ -23320,10 +23320,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>392.5258019886049</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
         <v>154.0032240193895</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>111.4255833268762</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>92.25350231781388</v>
       </c>
       <c r="S13" t="n">
-        <v>189.0020251410377</v>
+        <v>62.4174943058009</v>
       </c>
       <c r="T13" t="n">
-        <v>230.4722567313032</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>89.92504417157983</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>43.30494331567149</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>194.7489019883886</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>407.523454444542</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>305.4017585709749</v>
       </c>
       <c r="I14" t="n">
-        <v>78.82916265417056</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>130.4923093460296</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>214.6657556159317</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>253.0745883887606</v>
@@ -23661,13 +23661,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>112.836881678154</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>165.8952229274298</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>147.910928759317</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>92.2535023178139</v>
+        <v>92.25350231781388</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.0020251410377</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>92.05131078667117</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23737,22 +23737,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>249.2463028192285</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>305.4017585709749</v>
+        <v>168.2705350156024</v>
       </c>
       <c r="I17" t="n">
-        <v>78.82916265417056</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>130.4923093460296</v>
       </c>
       <c r="T17" t="n">
         <v>214.6657556159317</v>
@@ -23791,13 +23791,13 @@
         <v>253.0745883887606</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.8952229274298</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>147.910928759317</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>92.25350231781388</v>
       </c>
       <c r="S19" t="n">
         <v>189.0020251410377</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>230.4722567313032</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5475152713843</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>197.5558164028988</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>205.0595727514875</v>
       </c>
     </row>
     <row r="20">
@@ -23974,22 +23974,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>263.660071506131</v>
+        <v>305.4017585709749</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>78.82916265417055</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>214.6657556159317</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.0745883887606</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>306.1991757555343</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24129,7 +24129,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>121.6315970766117</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
@@ -24138,16 +24138,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
         <v>165.8952229274298</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>147.910928759317</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>111.4255833268762</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>92.2535023178139</v>
+        <v>92.25350231781388</v>
       </c>
       <c r="S22" t="n">
-        <v>189.0020251410377</v>
+        <v>178.394565240455</v>
       </c>
       <c r="T22" t="n">
-        <v>230.4722567313032</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>78.82916265417055</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>13.73137220658018</v>
       </c>
       <c r="T23" t="n">
-        <v>92.56053486075183</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>165.8952229274298</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>147.910928759317</v>
       </c>
       <c r="I25" t="n">
         <v>111.4255833268762</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>3.642463051157307</v>
+        <v>92.25350231781388</v>
       </c>
       <c r="S25" t="n">
         <v>189.0020251410377</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>96.35300383901291</v>
       </c>
     </row>
     <row r="26">
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>165.8952229274298</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>147.910928759317</v>
+        <v>93.12090977085904</v>
       </c>
       <c r="I28" t="n">
         <v>111.4255833268762</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>92.25350231781388</v>
       </c>
       <c r="S28" t="n">
         <v>189.0020251410377</v>
       </c>
       <c r="T28" t="n">
-        <v>119.7311431077321</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5475152713843</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
@@ -24669,7 +24669,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>78.82916265417053</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>13.73137220658018</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>92.56053486075081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
@@ -24852,13 +24852,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.8952229274298</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>111.4255833268762</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,22 +24888,22 @@
         <v>92.25350231781388</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.0020251410377</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5475152713843</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>137.3034688587346</v>
       </c>
       <c r="W31" t="n">
-        <v>272.6952044922355</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>78.82916265417053</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>92.56053486075086</v>
+        <v>13.73137220658026</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.8952229274298</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.910928759317</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>111.4255833268762</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>92.25350231781388</v>
       </c>
       <c r="S34" t="n">
-        <v>189.0020251410377</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>81.53925999876679</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5475152713843</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>178.3945652404553</v>
       </c>
     </row>
     <row r="35">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>308.5362692935815</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>72.28573550086151</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>407.523454444542</v>
       </c>
       <c r="H35" t="n">
-        <v>305.4017585709749</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>130.4923093460296</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>214.6657556159317</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25323,16 +25323,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>26.26141807873088</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.8952229274298</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>147.910928759317</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>111.4255833268762</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>92.25350231781388</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>178.394565240455</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>348.6060872217977</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>407.523454444542</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>305.4017585709749</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>78.82916265417053</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25450,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>278.3451277837182</v>
       </c>
     </row>
     <row r="39">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>93.73288981893947</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
         <v>165.8952229274298</v>
       </c>
       <c r="H40" t="n">
-        <v>147.910928759317</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>111.4255833268762</v>
+        <v>27.84811161408743</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>92.25350231781388</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.0020251410377</v>
       </c>
       <c r="T40" t="n">
-        <v>230.4722567313032</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25630,19 +25630,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>313.6202916977442</v>
+        <v>264.4904971045581</v>
       </c>
       <c r="H41" t="n">
         <v>305.4017585709749</v>
@@ -25684,16 +25684,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.0745883887606</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>128.0993557650412</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.8952229274298</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>92.25350231781388</v>
       </c>
       <c r="S43" t="n">
-        <v>189.0020251410377</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.06069909786075</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25867,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>305.4017585709749</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>78.82916265417053</v>
@@ -25918,19 +25918,19 @@
         <v>130.4923093460296</v>
       </c>
       <c r="T44" t="n">
-        <v>214.6657556159317</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>46.54268598212039</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>76.02941737267213</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>68.9126167183651</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>111.4255833268762</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>92.25350231781388</v>
       </c>
       <c r="S46" t="n">
-        <v>189.0020251410377</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>230.4722567313032</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>195.3642402404237</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>532748.4293831261</v>
+        <v>532748.4293831262</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>532748.4293831262</v>
+        <v>532748.4293831263</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>532748.4293831261</v>
+        <v>532748.4293831262</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>532748.4293831261</v>
+        <v>532748.4293831262</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>786934.5354792008</v>
+        <v>786934.5354792011</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>786934.535479201</v>
+        <v>786934.5354792009</v>
       </c>
     </row>
     <row r="11">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>559029.752089406</v>
+      </c>
+      <c r="C2" t="n">
         <v>559029.7520894061</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>559029.7520894059</v>
       </c>
-      <c r="D2" t="n">
-        <v>559029.7520894061</v>
-      </c>
       <c r="E2" t="n">
-        <v>368309.9081102302</v>
+        <v>368309.9081102305</v>
       </c>
       <c r="F2" t="n">
-        <v>368309.9081102303</v>
+        <v>368309.9081102305</v>
       </c>
       <c r="G2" t="n">
-        <v>368309.9081102302</v>
+        <v>368309.9081102305</v>
       </c>
       <c r="H2" t="n">
-        <v>368309.9081102303</v>
+        <v>368309.9081102306</v>
       </c>
       <c r="I2" t="n">
-        <v>525204.4629936842</v>
+        <v>525204.4629936847</v>
       </c>
       <c r="J2" t="n">
         <v>525204.4629936845</v>
       </c>
       <c r="K2" t="n">
-        <v>525204.4629936845</v>
+        <v>525204.4629936846</v>
       </c>
       <c r="L2" t="n">
-        <v>525204.4629936848</v>
+        <v>525204.4629936846</v>
       </c>
       <c r="M2" t="n">
-        <v>391495.7183726934</v>
+        <v>391495.7183726935</v>
       </c>
       <c r="N2" t="n">
         <v>391495.7183726935</v>
       </c>
       <c r="O2" t="n">
-        <v>391495.7183726933</v>
+        <v>391495.7183726935</v>
       </c>
       <c r="P2" t="n">
-        <v>391495.7183726933</v>
+        <v>391495.7183726935</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4264.605754355376</v>
+        <v>4264.605754355363</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>468059.313063742</v>
+        <v>468059.3130637421</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>174270.7397964738</v>
+        <v>174270.7397964739</v>
       </c>
       <c r="J3" t="n">
-        <v>3329.549174459959</v>
+        <v>3329.549174459989</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>365178.2041540099</v>
+        <v>365178.20415401</v>
       </c>
       <c r="C4" t="n">
         <v>365178.20415401</v>
@@ -26426,7 +26426,7 @@
         <v>365178.2041540099</v>
       </c>
       <c r="E4" t="n">
-        <v>69860.55046778252</v>
+        <v>69860.55046778251</v>
       </c>
       <c r="F4" t="n">
         <v>69860.55046778252</v>
@@ -26435,7 +26435,7 @@
         <v>69860.55046778251</v>
       </c>
       <c r="H4" t="n">
-        <v>69860.55046778252</v>
+        <v>69860.55046778251</v>
       </c>
       <c r="I4" t="n">
         <v>126973.0168392522</v>
@@ -26453,13 +26453,13 @@
         <v>78300.60633775101</v>
       </c>
       <c r="N4" t="n">
-        <v>78300.606337751</v>
+        <v>78300.60633775101</v>
       </c>
       <c r="O4" t="n">
         <v>78300.60633775103</v>
       </c>
       <c r="P4" t="n">
-        <v>78300.60633775101</v>
+        <v>78300.60633775103</v>
       </c>
     </row>
     <row r="5">
@@ -26505,13 +26505,13 @@
         <v>48794.59224155522</v>
       </c>
       <c r="N5" t="n">
-        <v>48794.59224155522</v>
+        <v>48794.59224155523</v>
       </c>
       <c r="O5" t="n">
-        <v>48794.59224155522</v>
+        <v>48794.59224155523</v>
       </c>
       <c r="P5" t="n">
-        <v>48794.59224155522</v>
+        <v>48794.59224155523</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>155185.6321406533</v>
+        <v>155185.6321406531</v>
       </c>
       <c r="C6" t="n">
+        <v>159450.2378950086</v>
+      </c>
+      <c r="D6" t="n">
         <v>159450.2378950084</v>
       </c>
-      <c r="D6" t="n">
-        <v>159450.2378950086</v>
-      </c>
       <c r="E6" t="n">
-        <v>-212516.2490670879</v>
+        <v>-213131.4743702463</v>
       </c>
       <c r="F6" t="n">
-        <v>255543.0639966543</v>
+        <v>254927.8386934958</v>
       </c>
       <c r="G6" t="n">
-        <v>255543.0639966542</v>
+        <v>254927.8386934959</v>
       </c>
       <c r="H6" t="n">
-        <v>255543.0639966543</v>
+        <v>254927.8386934959</v>
       </c>
       <c r="I6" t="n">
-        <v>141209.2670500109</v>
+        <v>141100.1532142186</v>
       </c>
       <c r="J6" t="n">
-        <v>312150.457672025</v>
+        <v>312041.3438362323</v>
       </c>
       <c r="K6" t="n">
-        <v>315480.0068464849</v>
+        <v>315370.8930106923</v>
       </c>
       <c r="L6" t="n">
-        <v>315480.0068464853</v>
+        <v>315370.8930106924</v>
       </c>
       <c r="M6" t="n">
-        <v>264400.5197933872</v>
+        <v>263860.0874265591</v>
       </c>
       <c r="N6" t="n">
-        <v>264400.5197933873</v>
+        <v>263860.0874265592</v>
       </c>
       <c r="O6" t="n">
-        <v>264400.5197933871</v>
+        <v>263860.0874265592</v>
       </c>
       <c r="P6" t="n">
-        <v>264400.519793387</v>
+        <v>263860.0874265591</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>375.0337861932936</v>
+        <v>375.0337861932937</v>
       </c>
       <c r="F3" t="n">
         <v>375.0337861932936</v>
@@ -26761,7 +26761,7 @@
         <v>375.0337861932936</v>
       </c>
       <c r="J3" t="n">
-        <v>375.0337861932937</v>
+        <v>375.0337861932936</v>
       </c>
       <c r="K3" t="n">
         <v>375.0337861932937</v>
@@ -26825,13 +26825,13 @@
         <v>668.0732845812734</v>
       </c>
       <c r="N4" t="n">
-        <v>668.0732845812734</v>
+        <v>668.0732845812735</v>
       </c>
       <c r="O4" t="n">
-        <v>668.0732845812734</v>
+        <v>668.0732845812735</v>
       </c>
       <c r="P4" t="n">
-        <v>668.0732845812734</v>
+        <v>668.0732845812735</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>375.0337861932936</v>
+        <v>375.0337861932937</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>655.347790495951</v>
+        <v>655.3477904959514</v>
       </c>
       <c r="J4" t="n">
-        <v>12.72549408532188</v>
+        <v>12.725494085322</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>397.8225127665252</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>24.88749049201128</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>152.1229254230379</v>
       </c>
       <c r="T2" t="n">
-        <v>219.0881091827027</v>
+        <v>208.5401023308555</v>
       </c>
       <c r="U2" t="n">
-        <v>240.4697081844254</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>137.5528770112297</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>136.4221940501867</v>
+        <v>137.9390729451571</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -27475,10 +27475,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>74.68894815008308</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>36.16788736288552</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>10.9523785855941</v>
       </c>
       <c r="S3" t="n">
         <v>133.5813703291298</v>
@@ -27520,13 +27520,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>216.6074582176944</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>164.7955806699258</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="4">
@@ -27539,7 +27539,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>155.7775726693487</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -27557,10 +27557,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>119.0379870239709</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>17.34899338683707</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27590,22 +27590,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>222.1532461230966</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>252.1109365370324</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>267.7716039628122</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>219.0140249095247</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>208.1554464862011</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>378.0351312917471</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>368.8612234101769</v>
       </c>
       <c r="E5" t="n">
-        <v>396.3802024011461</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>396.3056338715548</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>124.2282516531378</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>379.8003079032829</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27700,22 +27700,22 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>117.5794625143829</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>110.4619939703775</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>107.6506045585026</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>74.68894815008308</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>36.16788736288552</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>10.9523785855941</v>
       </c>
       <c r="S6" t="n">
         <v>133.5813703291298</v>
@@ -27751,10 +27751,10 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>195.2370178028226</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
-        <v>207.5891075273216</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
         <v>227.816073408046</v>
@@ -27776,10 +27776,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>155.7775726693487</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>141.3512878811884</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -27797,7 +27797,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>18.86587228180746</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>109.9364853884268</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>220.6363672281262</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>269.8589097551961</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>250.594057642062</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>269.2884828577825</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>394.3123110208081</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>397.8225127665252</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>124.2282516531378</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>379.8003079032829</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -27946,13 +27946,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G9" t="n">
-        <v>118.8592197488542</v>
+        <v>106.1337256635322</v>
       </c>
       <c r="H9" t="n">
-        <v>87.41444223540508</v>
+        <v>76.20582704505347</v>
       </c>
       <c r="I9" t="n">
-        <v>48.89338144820752</v>
+        <v>36.16788736288552</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,19 +27979,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>23.6778726709161</v>
+        <v>10.9523785855941</v>
       </c>
       <c r="S9" t="n">
-        <v>122.3727551387782</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T9" t="n">
-        <v>162.4884795977586</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U9" t="n">
-        <v>195.2370178028226</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V9" t="n">
-        <v>207.5891075273216</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W9" t="n">
         <v>227.816073408046</v>
@@ -28013,7 +28013,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>155.7775726693487</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -28022,19 +28022,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>143.0271813538348</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>142.7151503377693</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>119.0379870239709</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>17.34899338683707</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28073,13 +28073,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>267.7716039628122</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>219.0140249095247</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>209.6723253811714</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.507673512334847</v>
+        <v>1.507673512334848</v>
       </c>
       <c r="H11" t="n">
         <v>15.44046135819926</v>
       </c>
       <c r="I11" t="n">
-        <v>58.12458308428926</v>
+        <v>58.12458308428928</v>
       </c>
       <c r="J11" t="n">
         <v>127.9619047675299</v>
       </c>
       <c r="K11" t="n">
-        <v>191.781724544664</v>
+        <v>191.7817245446641</v>
       </c>
       <c r="L11" t="n">
-        <v>237.9221877977816</v>
+        <v>237.9221877977817</v>
       </c>
       <c r="M11" t="n">
         <v>264.7342766227665</v>
       </c>
       <c r="N11" t="n">
-        <v>269.0179539896879</v>
+        <v>269.017953989688</v>
       </c>
       <c r="O11" t="n">
-        <v>254.0260255014082</v>
+        <v>254.0260255014083</v>
       </c>
       <c r="P11" t="n">
-        <v>216.8053356656416</v>
+        <v>216.8053356656417</v>
       </c>
       <c r="Q11" t="n">
-        <v>162.8117780051498</v>
+        <v>162.8117780051499</v>
       </c>
       <c r="R11" t="n">
-        <v>94.70639626920394</v>
+        <v>94.70639626920396</v>
       </c>
       <c r="S11" t="n">
-        <v>34.35611016233037</v>
+        <v>34.35611016233038</v>
       </c>
       <c r="T11" t="n">
-        <v>6.599840800245798</v>
+        <v>6.5998408002458</v>
       </c>
       <c r="U11" t="n">
         <v>0.1206138809867878</v>
@@ -31831,28 +31831,28 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8066764457742541</v>
+        <v>0.8066764457742543</v>
       </c>
       <c r="H12" t="n">
-        <v>7.790796199977666</v>
+        <v>7.790796199977668</v>
       </c>
       <c r="I12" t="n">
-        <v>27.7737285058241</v>
+        <v>27.77372850582411</v>
       </c>
       <c r="J12" t="n">
-        <v>76.21323385273338</v>
+        <v>76.2132338527334</v>
       </c>
       <c r="K12" t="n">
         <v>130.2605557196084</v>
       </c>
       <c r="L12" t="n">
-        <v>175.1513923160283</v>
+        <v>175.1513923160284</v>
       </c>
       <c r="M12" t="n">
         <v>204.393413475345</v>
       </c>
       <c r="N12" t="n">
-        <v>209.8030989384539</v>
+        <v>209.803098938454</v>
       </c>
       <c r="O12" t="n">
         <v>191.9288471662981</v>
@@ -31864,16 +31864,16 @@
         <v>102.9715406921662</v>
       </c>
       <c r="R12" t="n">
-        <v>50.08470072973836</v>
+        <v>50.08470072973837</v>
       </c>
       <c r="S12" t="n">
         <v>14.98366117479809</v>
       </c>
       <c r="T12" t="n">
-        <v>3.251472165204119</v>
+        <v>3.25147216520412</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05307081880093779</v>
+        <v>0.05307081880093781</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6762904341190539</v>
+        <v>0.6762904341190541</v>
       </c>
       <c r="H13" t="n">
-        <v>6.012836768803957</v>
+        <v>6.012836768803958</v>
       </c>
       <c r="I13" t="n">
         <v>20.33789778241665</v>
       </c>
       <c r="J13" t="n">
-        <v>47.81373369221711</v>
+        <v>47.81373369221712</v>
       </c>
       <c r="K13" t="n">
-        <v>78.57265225492279</v>
+        <v>78.57265225492282</v>
       </c>
       <c r="L13" t="n">
         <v>100.5459432689365</v>
@@ -31934,13 +31934,13 @@
         <v>103.4908807047822</v>
       </c>
       <c r="O13" t="n">
-        <v>95.59057881530049</v>
+        <v>95.59057881530052</v>
       </c>
       <c r="P13" t="n">
-        <v>81.79425395927173</v>
+        <v>81.79425395927174</v>
       </c>
       <c r="Q13" t="n">
-        <v>56.63010171518733</v>
+        <v>56.63010171518734</v>
       </c>
       <c r="R13" t="n">
         <v>30.40847715593491</v>
@@ -31952,7 +31952,7 @@
         <v>2.889604582145048</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03688856913376662</v>
+        <v>0.03688856913376663</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>15.44046135819926</v>
       </c>
       <c r="I14" t="n">
-        <v>58.12458308428926</v>
+        <v>58.12458308428927</v>
       </c>
       <c r="J14" t="n">
         <v>127.9619047675299</v>
@@ -32004,7 +32004,7 @@
         <v>191.781724544664</v>
       </c>
       <c r="L14" t="n">
-        <v>237.9221877977816</v>
+        <v>237.9221877977817</v>
       </c>
       <c r="M14" t="n">
         <v>264.7342766227665</v>
@@ -32016,19 +32016,19 @@
         <v>254.0260255014082</v>
       </c>
       <c r="P14" t="n">
-        <v>216.8053356656416</v>
+        <v>216.8053356656417</v>
       </c>
       <c r="Q14" t="n">
-        <v>162.8117780051498</v>
+        <v>162.8117780051499</v>
       </c>
       <c r="R14" t="n">
-        <v>94.70639626920394</v>
+        <v>94.70639626920395</v>
       </c>
       <c r="S14" t="n">
         <v>34.35611016233037</v>
       </c>
       <c r="T14" t="n">
-        <v>6.599840800245798</v>
+        <v>6.599840800245799</v>
       </c>
       <c r="U14" t="n">
         <v>0.1206138809867878</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8066764457742541</v>
+        <v>0.8066764457742542</v>
       </c>
       <c r="H15" t="n">
-        <v>7.790796199977666</v>
+        <v>7.790796199977667</v>
       </c>
       <c r="I15" t="n">
-        <v>27.7737285058241</v>
+        <v>27.77372850582411</v>
       </c>
       <c r="J15" t="n">
-        <v>76.21323385273338</v>
+        <v>76.2132338527334</v>
       </c>
       <c r="K15" t="n">
         <v>130.2605557196084</v>
@@ -32089,7 +32089,7 @@
         <v>204.393413475345</v>
       </c>
       <c r="N15" t="n">
-        <v>209.8030989384539</v>
+        <v>209.803098938454</v>
       </c>
       <c r="O15" t="n">
         <v>191.9288471662981</v>
@@ -32101,16 +32101,16 @@
         <v>102.9715406921662</v>
       </c>
       <c r="R15" t="n">
-        <v>50.08470072973836</v>
+        <v>50.08470072973837</v>
       </c>
       <c r="S15" t="n">
         <v>14.98366117479809</v>
       </c>
       <c r="T15" t="n">
-        <v>3.251472165204119</v>
+        <v>3.25147216520412</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05307081880093779</v>
+        <v>0.0530708188009378</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,7 +32147,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6762904341190539</v>
+        <v>0.676290434119054</v>
       </c>
       <c r="H16" t="n">
         <v>6.012836768803957</v>
@@ -32159,7 +32159,7 @@
         <v>47.81373369221711</v>
       </c>
       <c r="K16" t="n">
-        <v>78.57265225492279</v>
+        <v>78.5726522549228</v>
       </c>
       <c r="L16" t="n">
         <v>100.5459432689365</v>
@@ -32171,13 +32171,13 @@
         <v>103.4908807047822</v>
       </c>
       <c r="O16" t="n">
-        <v>95.59057881530049</v>
+        <v>95.5905788153005</v>
       </c>
       <c r="P16" t="n">
         <v>81.79425395927173</v>
       </c>
       <c r="Q16" t="n">
-        <v>56.63010171518733</v>
+        <v>56.63010171518734</v>
       </c>
       <c r="R16" t="n">
         <v>30.40847715593491</v>
@@ -32189,7 +32189,7 @@
         <v>2.889604582145048</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03688856913376662</v>
+        <v>0.03688856913376663</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,7 +32232,7 @@
         <v>15.44046135819926</v>
       </c>
       <c r="I17" t="n">
-        <v>58.12458308428926</v>
+        <v>58.12458308428927</v>
       </c>
       <c r="J17" t="n">
         <v>127.9619047675299</v>
@@ -32241,7 +32241,7 @@
         <v>191.781724544664</v>
       </c>
       <c r="L17" t="n">
-        <v>237.9221877977816</v>
+        <v>237.9221877977817</v>
       </c>
       <c r="M17" t="n">
         <v>264.7342766227665</v>
@@ -32253,19 +32253,19 @@
         <v>254.0260255014082</v>
       </c>
       <c r="P17" t="n">
-        <v>216.8053356656416</v>
+        <v>216.8053356656417</v>
       </c>
       <c r="Q17" t="n">
-        <v>162.8117780051498</v>
+        <v>162.8117780051499</v>
       </c>
       <c r="R17" t="n">
-        <v>94.70639626920394</v>
+        <v>94.70639626920395</v>
       </c>
       <c r="S17" t="n">
         <v>34.35611016233037</v>
       </c>
       <c r="T17" t="n">
-        <v>6.599840800245798</v>
+        <v>6.599840800245799</v>
       </c>
       <c r="U17" t="n">
         <v>0.1206138809867878</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8066764457742541</v>
+        <v>0.8066764457742542</v>
       </c>
       <c r="H18" t="n">
-        <v>7.790796199977666</v>
+        <v>7.790796199977667</v>
       </c>
       <c r="I18" t="n">
-        <v>27.7737285058241</v>
+        <v>27.77372850582411</v>
       </c>
       <c r="J18" t="n">
-        <v>76.21323385273338</v>
+        <v>76.2132338527334</v>
       </c>
       <c r="K18" t="n">
         <v>130.2605557196084</v>
@@ -32326,7 +32326,7 @@
         <v>204.393413475345</v>
       </c>
       <c r="N18" t="n">
-        <v>209.8030989384539</v>
+        <v>209.803098938454</v>
       </c>
       <c r="O18" t="n">
         <v>191.9288471662981</v>
@@ -32338,16 +32338,16 @@
         <v>102.9715406921662</v>
       </c>
       <c r="R18" t="n">
-        <v>50.08470072973836</v>
+        <v>50.08470072973837</v>
       </c>
       <c r="S18" t="n">
         <v>14.98366117479809</v>
       </c>
       <c r="T18" t="n">
-        <v>3.251472165204119</v>
+        <v>3.25147216520412</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05307081880093779</v>
+        <v>0.0530708188009378</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,7 +32384,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6762904341190539</v>
+        <v>0.676290434119054</v>
       </c>
       <c r="H19" t="n">
         <v>6.012836768803957</v>
@@ -32396,7 +32396,7 @@
         <v>47.81373369221711</v>
       </c>
       <c r="K19" t="n">
-        <v>78.57265225492279</v>
+        <v>78.5726522549228</v>
       </c>
       <c r="L19" t="n">
         <v>100.5459432689365</v>
@@ -32408,13 +32408,13 @@
         <v>103.4908807047822</v>
       </c>
       <c r="O19" t="n">
-        <v>95.59057881530049</v>
+        <v>95.5905788153005</v>
       </c>
       <c r="P19" t="n">
         <v>81.79425395927173</v>
       </c>
       <c r="Q19" t="n">
-        <v>56.63010171518733</v>
+        <v>56.63010171518734</v>
       </c>
       <c r="R19" t="n">
         <v>30.40847715593491</v>
@@ -32426,7 +32426,7 @@
         <v>2.889604582145048</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03688856913376662</v>
+        <v>0.03688856913376663</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>15.44046135819926</v>
       </c>
       <c r="I20" t="n">
-        <v>58.12458308428926</v>
+        <v>58.12458308428927</v>
       </c>
       <c r="J20" t="n">
         <v>127.9619047675299</v>
@@ -32478,7 +32478,7 @@
         <v>191.781724544664</v>
       </c>
       <c r="L20" t="n">
-        <v>237.9221877977816</v>
+        <v>237.9221877977817</v>
       </c>
       <c r="M20" t="n">
         <v>264.7342766227665</v>
@@ -32490,19 +32490,19 @@
         <v>254.0260255014082</v>
       </c>
       <c r="P20" t="n">
-        <v>216.8053356656416</v>
+        <v>216.8053356656417</v>
       </c>
       <c r="Q20" t="n">
-        <v>162.8117780051498</v>
+        <v>162.8117780051499</v>
       </c>
       <c r="R20" t="n">
-        <v>94.70639626920394</v>
+        <v>94.70639626920395</v>
       </c>
       <c r="S20" t="n">
         <v>34.35611016233037</v>
       </c>
       <c r="T20" t="n">
-        <v>6.599840800245798</v>
+        <v>6.599840800245799</v>
       </c>
       <c r="U20" t="n">
         <v>0.1206138809867878</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8066764457742541</v>
+        <v>0.8066764457742542</v>
       </c>
       <c r="H21" t="n">
-        <v>7.790796199977666</v>
+        <v>7.790796199977667</v>
       </c>
       <c r="I21" t="n">
-        <v>27.7737285058241</v>
+        <v>27.77372850582411</v>
       </c>
       <c r="J21" t="n">
-        <v>76.21323385273338</v>
+        <v>76.2132338527334</v>
       </c>
       <c r="K21" t="n">
         <v>130.2605557196084</v>
@@ -32563,7 +32563,7 @@
         <v>204.393413475345</v>
       </c>
       <c r="N21" t="n">
-        <v>209.8030989384539</v>
+        <v>209.803098938454</v>
       </c>
       <c r="O21" t="n">
         <v>191.9288471662981</v>
@@ -32575,16 +32575,16 @@
         <v>102.9715406921662</v>
       </c>
       <c r="R21" t="n">
-        <v>50.08470072973836</v>
+        <v>50.08470072973837</v>
       </c>
       <c r="S21" t="n">
         <v>14.98366117479809</v>
       </c>
       <c r="T21" t="n">
-        <v>3.251472165204119</v>
+        <v>3.25147216520412</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05307081880093779</v>
+        <v>0.0530708188009378</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,7 +32621,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6762904341190539</v>
+        <v>0.676290434119054</v>
       </c>
       <c r="H22" t="n">
         <v>6.012836768803957</v>
@@ -32633,7 +32633,7 @@
         <v>47.81373369221711</v>
       </c>
       <c r="K22" t="n">
-        <v>78.57265225492279</v>
+        <v>78.5726522549228</v>
       </c>
       <c r="L22" t="n">
         <v>100.5459432689365</v>
@@ -32645,13 +32645,13 @@
         <v>103.4908807047822</v>
       </c>
       <c r="O22" t="n">
-        <v>95.59057881530049</v>
+        <v>95.5905788153005</v>
       </c>
       <c r="P22" t="n">
         <v>81.79425395927173</v>
       </c>
       <c r="Q22" t="n">
-        <v>56.63010171518733</v>
+        <v>56.63010171518734</v>
       </c>
       <c r="R22" t="n">
         <v>30.40847715593491</v>
@@ -32663,7 +32663,7 @@
         <v>2.889604582145048</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03688856913376662</v>
+        <v>0.03688856913376663</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,7 +32706,7 @@
         <v>15.44046135819926</v>
       </c>
       <c r="I23" t="n">
-        <v>58.12458308428926</v>
+        <v>58.12458308428927</v>
       </c>
       <c r="J23" t="n">
         <v>127.9619047675299</v>
@@ -32715,7 +32715,7 @@
         <v>191.781724544664</v>
       </c>
       <c r="L23" t="n">
-        <v>237.9221877977816</v>
+        <v>237.9221877977817</v>
       </c>
       <c r="M23" t="n">
         <v>264.7342766227665</v>
@@ -32727,19 +32727,19 @@
         <v>254.0260255014082</v>
       </c>
       <c r="P23" t="n">
-        <v>216.8053356656416</v>
+        <v>216.8053356656417</v>
       </c>
       <c r="Q23" t="n">
-        <v>162.8117780051498</v>
+        <v>162.8117780051499</v>
       </c>
       <c r="R23" t="n">
-        <v>94.70639626920394</v>
+        <v>94.70639626920395</v>
       </c>
       <c r="S23" t="n">
         <v>34.35611016233037</v>
       </c>
       <c r="T23" t="n">
-        <v>6.599840800245798</v>
+        <v>6.599840800245799</v>
       </c>
       <c r="U23" t="n">
         <v>0.1206138809867878</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8066764457742541</v>
+        <v>0.8066764457742542</v>
       </c>
       <c r="H24" t="n">
-        <v>7.790796199977666</v>
+        <v>7.790796199977667</v>
       </c>
       <c r="I24" t="n">
-        <v>27.7737285058241</v>
+        <v>27.77372850582411</v>
       </c>
       <c r="J24" t="n">
-        <v>76.21323385273338</v>
+        <v>76.2132338527334</v>
       </c>
       <c r="K24" t="n">
         <v>130.2605557196084</v>
@@ -32800,7 +32800,7 @@
         <v>204.393413475345</v>
       </c>
       <c r="N24" t="n">
-        <v>209.8030989384539</v>
+        <v>209.803098938454</v>
       </c>
       <c r="O24" t="n">
         <v>191.9288471662981</v>
@@ -32812,16 +32812,16 @@
         <v>102.9715406921662</v>
       </c>
       <c r="R24" t="n">
-        <v>50.08470072973836</v>
+        <v>50.08470072973837</v>
       </c>
       <c r="S24" t="n">
         <v>14.98366117479809</v>
       </c>
       <c r="T24" t="n">
-        <v>3.251472165204119</v>
+        <v>3.25147216520412</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05307081880093779</v>
+        <v>0.0530708188009378</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,7 +32858,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6762904341190539</v>
+        <v>0.676290434119054</v>
       </c>
       <c r="H25" t="n">
         <v>6.012836768803957</v>
@@ -32870,7 +32870,7 @@
         <v>47.81373369221711</v>
       </c>
       <c r="K25" t="n">
-        <v>78.57265225492279</v>
+        <v>78.5726522549228</v>
       </c>
       <c r="L25" t="n">
         <v>100.5459432689365</v>
@@ -32882,13 +32882,13 @@
         <v>103.4908807047822</v>
       </c>
       <c r="O25" t="n">
-        <v>95.59057881530049</v>
+        <v>95.5905788153005</v>
       </c>
       <c r="P25" t="n">
         <v>81.79425395927173</v>
       </c>
       <c r="Q25" t="n">
-        <v>56.63010171518733</v>
+        <v>56.63010171518734</v>
       </c>
       <c r="R25" t="n">
         <v>30.40847715593491</v>
@@ -32900,7 +32900,7 @@
         <v>2.889604582145048</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03688856913376662</v>
+        <v>0.03688856913376663</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,31 +32937,31 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.507673512334848</v>
+        <v>1.507673512334847</v>
       </c>
       <c r="H26" t="n">
-        <v>15.44046135819927</v>
+        <v>15.44046135819926</v>
       </c>
       <c r="I26" t="n">
-        <v>58.12458308428928</v>
+        <v>58.12458308428927</v>
       </c>
       <c r="J26" t="n">
         <v>127.9619047675299</v>
       </c>
       <c r="K26" t="n">
-        <v>191.7817245446641</v>
+        <v>191.781724544664</v>
       </c>
       <c r="L26" t="n">
         <v>237.9221877977817</v>
       </c>
       <c r="M26" t="n">
-        <v>264.7342766227666</v>
+        <v>264.7342766227665</v>
       </c>
       <c r="N26" t="n">
-        <v>269.017953989688</v>
+        <v>269.0179539896879</v>
       </c>
       <c r="O26" t="n">
-        <v>254.0260255014083</v>
+        <v>254.0260255014082</v>
       </c>
       <c r="P26" t="n">
         <v>216.8053356656417</v>
@@ -32970,13 +32970,13 @@
         <v>162.8117780051499</v>
       </c>
       <c r="R26" t="n">
-        <v>94.70639626920398</v>
+        <v>94.70639626920395</v>
       </c>
       <c r="S26" t="n">
-        <v>34.35611016233038</v>
+        <v>34.35611016233037</v>
       </c>
       <c r="T26" t="n">
-        <v>6.599840800245801</v>
+        <v>6.599840800245799</v>
       </c>
       <c r="U26" t="n">
         <v>0.1206138809867878</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8066764457742545</v>
+        <v>0.8066764457742542</v>
       </c>
       <c r="H27" t="n">
-        <v>7.790796199977669</v>
+        <v>7.790796199977667</v>
       </c>
       <c r="I27" t="n">
-        <v>27.77372850582412</v>
+        <v>27.77372850582411</v>
       </c>
       <c r="J27" t="n">
-        <v>76.21323385273341</v>
+        <v>76.2132338527334</v>
       </c>
       <c r="K27" t="n">
         <v>130.2605557196084</v>
       </c>
       <c r="L27" t="n">
-        <v>175.1513923160284</v>
+        <v>175.1513923160283</v>
       </c>
       <c r="M27" t="n">
-        <v>204.3934134753451</v>
+        <v>204.393413475345</v>
       </c>
       <c r="N27" t="n">
         <v>209.803098938454</v>
       </c>
       <c r="O27" t="n">
-        <v>191.9288471662982</v>
+        <v>191.9288471662981</v>
       </c>
       <c r="P27" t="n">
         <v>154.0398205970153</v>
@@ -33049,16 +33049,16 @@
         <v>102.9715406921662</v>
       </c>
       <c r="R27" t="n">
-        <v>50.08470072973838</v>
+        <v>50.08470072973837</v>
       </c>
       <c r="S27" t="n">
         <v>14.98366117479809</v>
       </c>
       <c r="T27" t="n">
-        <v>3.251472165204121</v>
+        <v>3.25147216520412</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05307081880093781</v>
+        <v>0.0530708188009378</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6762904341190542</v>
+        <v>0.676290434119054</v>
       </c>
       <c r="H28" t="n">
-        <v>6.012836768803959</v>
+        <v>6.012836768803957</v>
       </c>
       <c r="I28" t="n">
         <v>20.33789778241665</v>
       </c>
       <c r="J28" t="n">
-        <v>47.81373369221713</v>
+        <v>47.81373369221711</v>
       </c>
       <c r="K28" t="n">
-        <v>78.57265225492283</v>
+        <v>78.5726522549228</v>
       </c>
       <c r="L28" t="n">
         <v>100.5459432689365</v>
@@ -33119,22 +33119,22 @@
         <v>103.4908807047822</v>
       </c>
       <c r="O28" t="n">
-        <v>95.59057881530053</v>
+        <v>95.5905788153005</v>
       </c>
       <c r="P28" t="n">
-        <v>81.79425395927176</v>
+        <v>81.79425395927173</v>
       </c>
       <c r="Q28" t="n">
-        <v>56.63010171518735</v>
+        <v>56.63010171518734</v>
       </c>
       <c r="R28" t="n">
-        <v>30.40847715593492</v>
+        <v>30.40847715593491</v>
       </c>
       <c r="S28" t="n">
         <v>11.78589783823842</v>
       </c>
       <c r="T28" t="n">
-        <v>2.889604582145049</v>
+        <v>2.889604582145048</v>
       </c>
       <c r="U28" t="n">
         <v>0.03688856913376663</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>12.21133270813727</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="N2" t="n">
-        <v>12.21133270813727</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>12.725494085322</v>
@@ -34780,25 +34780,25 @@
         <v>12.725494085322</v>
       </c>
       <c r="K3" t="n">
+        <v>12.725494085322</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>12.725494085322</v>
+      </c>
+      <c r="N3" t="n">
         <v>12.21133270813727</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>12.725494085322</v>
+        <v>12.21133270813727</v>
       </c>
       <c r="N4" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="P4" t="n">
-        <v>12.21133270813727</v>
+        <v>12.725494085322</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34944,19 +34944,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>12.21133270813727</v>
+      </c>
+      <c r="O5" t="n">
         <v>12.725494085322</v>
-      </c>
-      <c r="N5" t="n">
-        <v>12.725494085322</v>
-      </c>
-      <c r="O5" t="n">
-        <v>12.21133270813727</v>
       </c>
       <c r="P5" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>12.21133270813727</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="L6" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="M6" t="n">
-        <v>12.21133270813727</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>12.725494085322</v>
-      </c>
-      <c r="O6" t="n">
-        <v>12.725494085322</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>12.21133270813727</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -35111,7 +35111,7 @@
         <v>12.725494085322</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>12.21133270813727</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>12.21133270813727</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>12.725494085322</v>
       </c>
-      <c r="M8" t="n">
-        <v>12.21133270813727</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="Q8" t="n">
         <v>12.725494085322</v>
-      </c>
-      <c r="O8" t="n">
-        <v>12.725494085322</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>12.21133270813727</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>12.725494085322</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>12.725494085322</v>
@@ -35333,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>12.725494085322</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
       <c r="M10" t="n">
-        <v>8.754568697984791</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>12.725494085322</v>
@@ -35348,10 +35348,10 @@
         <v>12.725494085322</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>12.21133270813727</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.456764010152483</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>554.3901649764437</v>
       </c>
       <c r="L11" t="n">
-        <v>84.67401806728992</v>
+        <v>118.8636464894809</v>
       </c>
       <c r="M11" t="n">
-        <v>121.418749638053</v>
+        <v>115.0092250250393</v>
       </c>
       <c r="N11" t="n">
-        <v>571.2262682036139</v>
+        <v>119.8994626519039</v>
       </c>
       <c r="O11" t="n">
-        <v>571.2262682036139</v>
+        <v>104.4621880773119</v>
       </c>
       <c r="P11" t="n">
-        <v>66.50388842471642</v>
+        <v>568.5098731722294</v>
       </c>
       <c r="Q11" t="n">
-        <v>18.31307958675768</v>
+        <v>349.524465016209</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>57.09341169187068</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>190.4707916504378</v>
       </c>
       <c r="K12" t="n">
-        <v>40.66362038627504</v>
+        <v>453.2293901258978</v>
       </c>
       <c r="L12" t="n">
-        <v>571.2262682036139</v>
+        <v>352.5773167110408</v>
       </c>
       <c r="M12" t="n">
-        <v>571.2262682036139</v>
+        <v>112.0062914260331</v>
       </c>
       <c r="N12" t="n">
         <v>124.4309860842873</v>
       </c>
       <c r="O12" t="n">
-        <v>188.065526673625</v>
+        <v>99.24128827740925</v>
       </c>
       <c r="P12" t="n">
         <v>563.7583748560025</v>
       </c>
       <c r="Q12" t="n">
-        <v>11.98338753625221</v>
+        <v>339.7039564041768</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>26.40682805882227</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>17.73924622005804</v>
+        <v>17.73924622005805</v>
       </c>
       <c r="K13" t="n">
         <v>161.2343099417328</v>
@@ -35576,7 +35576,7 @@
         <v>266.3314380909565</v>
       </c>
       <c r="M13" t="n">
-        <v>294.1849110483814</v>
+        <v>294.1849110483815</v>
       </c>
       <c r="N13" t="n">
         <v>288.530915079741</v>
@@ -35588,7 +35588,7 @@
         <v>202.8812900972299</v>
       </c>
       <c r="Q13" t="n">
-        <v>60.08686572533981</v>
+        <v>60.08686572533983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>10.28206682518378</v>
+        <v>274.0727864936189</v>
       </c>
       <c r="K14" t="n">
-        <v>48.72332136542664</v>
+        <v>48.72332136542667</v>
       </c>
       <c r="L14" t="n">
+        <v>84.67401806728998</v>
+      </c>
+      <c r="M14" t="n">
+        <v>188.1016169319451</v>
+      </c>
+      <c r="N14" t="n">
+        <v>119.8994626519038</v>
+      </c>
+      <c r="O14" t="n">
         <v>571.2262682036139</v>
       </c>
-      <c r="M14" t="n">
-        <v>571.2262682036139</v>
-      </c>
-      <c r="N14" t="n">
-        <v>571.2262682036139</v>
-      </c>
-      <c r="O14" t="n">
-        <v>404.3240627811815</v>
-      </c>
       <c r="P14" t="n">
-        <v>66.50388842471642</v>
+        <v>568.5098731722294</v>
       </c>
       <c r="Q14" t="n">
-        <v>18.31307958675768</v>
+        <v>349.524465016209</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>57.09341169187067</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>190.4707916504378</v>
       </c>
       <c r="K15" t="n">
-        <v>40.66362038627504</v>
+        <v>453.2293901258977</v>
       </c>
       <c r="L15" t="n">
-        <v>100.8223864151125</v>
+        <v>352.5773167110408</v>
       </c>
       <c r="M15" t="n">
-        <v>571.2262682036139</v>
+        <v>112.0062914260331</v>
       </c>
       <c r="N15" t="n">
-        <v>571.2262682036139</v>
+        <v>124.4309860842873</v>
       </c>
       <c r="O15" t="n">
-        <v>571.2262682036139</v>
+        <v>99.24128827740923</v>
       </c>
       <c r="P15" t="n">
-        <v>66.9564557777006</v>
+        <v>563.7583748560025</v>
       </c>
       <c r="Q15" t="n">
         <v>339.7039564041768</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>26.40682805882226</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35813,7 +35813,7 @@
         <v>266.3314380909565</v>
       </c>
       <c r="M16" t="n">
-        <v>294.1849110483814</v>
+        <v>294.1849110483815</v>
       </c>
       <c r="N16" t="n">
         <v>288.530915079741</v>
@@ -35825,7 +35825,7 @@
         <v>202.8812900972299</v>
       </c>
       <c r="Q16" t="n">
-        <v>60.08686572533981</v>
+        <v>60.08686572533982</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>10.28206682518378</v>
+        <v>274.0727864936189</v>
       </c>
       <c r="K17" t="n">
-        <v>48.72332136542664</v>
+        <v>554.3901649764437</v>
       </c>
       <c r="L17" t="n">
-        <v>84.67401806728992</v>
+        <v>571.2262682036139</v>
       </c>
       <c r="M17" t="n">
-        <v>115.0092250250392</v>
+        <v>552.9573851797414</v>
       </c>
       <c r="N17" t="n">
-        <v>513.8759859191157</v>
+        <v>119.8994626519038</v>
       </c>
       <c r="O17" t="n">
-        <v>571.2262682036139</v>
+        <v>104.4621880773119</v>
       </c>
       <c r="P17" t="n">
-        <v>568.5098731722294</v>
+        <v>66.50388842471648</v>
       </c>
       <c r="Q17" t="n">
-        <v>349.524465016209</v>
+        <v>18.31307958675771</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>40.66362038627504</v>
+        <v>40.66362038627507</v>
       </c>
       <c r="L18" t="n">
-        <v>85.09104545911008</v>
+        <v>571.2262682036139</v>
       </c>
       <c r="M18" t="n">
         <v>571.2262682036139</v>
       </c>
       <c r="N18" t="n">
-        <v>417.8762589492391</v>
+        <v>124.4309860842873</v>
       </c>
       <c r="O18" t="n">
-        <v>571.2262682036139</v>
+        <v>378.5363183240613</v>
       </c>
       <c r="P18" t="n">
         <v>563.7583748560025</v>
       </c>
       <c r="Q18" t="n">
-        <v>11.98338753625221</v>
+        <v>11.98338753625222</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36050,7 +36050,7 @@
         <v>266.3314380909565</v>
       </c>
       <c r="M19" t="n">
-        <v>294.1849110483814</v>
+        <v>294.1849110483815</v>
       </c>
       <c r="N19" t="n">
         <v>288.530915079741</v>
@@ -36062,7 +36062,7 @@
         <v>202.8812900972299</v>
       </c>
       <c r="Q19" t="n">
-        <v>60.08686572533981</v>
+        <v>60.08686572533982</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,22 +36120,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>10.28206682518378</v>
+        <v>274.0727864936189</v>
       </c>
       <c r="K20" t="n">
-        <v>48.72332136542664</v>
+        <v>554.3901649764437</v>
       </c>
       <c r="L20" t="n">
-        <v>478.6505413345018</v>
+        <v>118.8636464894811</v>
       </c>
       <c r="M20" t="n">
-        <v>115.0092250250392</v>
+        <v>115.0092250250393</v>
       </c>
       <c r="N20" t="n">
         <v>119.8994626519038</v>
       </c>
       <c r="O20" t="n">
-        <v>571.2262682036139</v>
+        <v>104.4621880773119</v>
       </c>
       <c r="P20" t="n">
         <v>568.5098731722294</v>
@@ -36144,7 +36144,7 @@
         <v>349.524465016209</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>57.09341169187067</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>190.4707916504378</v>
       </c>
       <c r="K21" t="n">
-        <v>40.66362038627504</v>
+        <v>453.2293901258977</v>
       </c>
       <c r="L21" t="n">
-        <v>85.09104545911008</v>
+        <v>85.09104545911011</v>
       </c>
       <c r="M21" t="n">
+        <v>311.6416166374806</v>
+      </c>
+      <c r="N21" t="n">
         <v>571.2262682036139</v>
-      </c>
-      <c r="N21" t="n">
-        <v>417.87625894924</v>
       </c>
       <c r="O21" t="n">
         <v>571.2262682036139</v>
       </c>
       <c r="P21" t="n">
-        <v>563.7583748560025</v>
+        <v>66.95645577770063</v>
       </c>
       <c r="Q21" t="n">
-        <v>11.98338753625221</v>
+        <v>11.98338753625222</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36287,7 +36287,7 @@
         <v>266.3314380909565</v>
       </c>
       <c r="M22" t="n">
-        <v>294.1849110483814</v>
+        <v>294.1849110483815</v>
       </c>
       <c r="N22" t="n">
         <v>288.530915079741</v>
@@ -36299,7 +36299,7 @@
         <v>202.8812900972299</v>
       </c>
       <c r="Q22" t="n">
-        <v>60.08686572533981</v>
+        <v>60.08686572533982</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,10 +36363,10 @@
         <v>554.3901649764437</v>
       </c>
       <c r="L23" t="n">
-        <v>736.2255127659926</v>
+        <v>736.2255127659927</v>
       </c>
       <c r="M23" t="n">
-        <v>816.2503372738579</v>
+        <v>816.250337273858</v>
       </c>
       <c r="N23" t="n">
         <v>802.1606647345991</v>
@@ -36381,7 +36381,7 @@
         <v>349.524465016209</v>
       </c>
       <c r="R23" t="n">
-        <v>57.09341169187066</v>
+        <v>57.09341169187067</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>190.4707916504378</v>
       </c>
       <c r="K24" t="n">
-        <v>40.66362038627504</v>
+        <v>453.2293901258977</v>
       </c>
       <c r="L24" t="n">
-        <v>663.6019841325063</v>
+        <v>352.5773167110397</v>
       </c>
       <c r="M24" t="n">
-        <v>316.7026057732949</v>
+        <v>112.0062914260331</v>
       </c>
       <c r="N24" t="n">
-        <v>872.2050900602308</v>
+        <v>124.4309860842873</v>
       </c>
       <c r="O24" t="n">
-        <v>99.2412882774092</v>
+        <v>99.24128827740923</v>
       </c>
       <c r="P24" t="n">
-        <v>66.9564557777006</v>
+        <v>563.7583748560025</v>
       </c>
       <c r="Q24" t="n">
-        <v>11.98338753625221</v>
+        <v>339.7039564041768</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>26.40682805882226</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36524,7 +36524,7 @@
         <v>266.3314380909565</v>
       </c>
       <c r="M25" t="n">
-        <v>294.1849110483814</v>
+        <v>294.1849110483815</v>
       </c>
       <c r="N25" t="n">
         <v>288.530915079741</v>
@@ -36536,7 +36536,7 @@
         <v>202.8812900972299</v>
       </c>
       <c r="Q25" t="n">
-        <v>60.08686572533981</v>
+        <v>60.08686572533982</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36603,22 +36603,22 @@
         <v>736.2255127659927</v>
       </c>
       <c r="M26" t="n">
-        <v>816.2503372738581</v>
+        <v>816.250337273858</v>
       </c>
       <c r="N26" t="n">
         <v>802.1606647345991</v>
       </c>
       <c r="O26" t="n">
-        <v>698.5104708471946</v>
+        <v>698.5104708471945</v>
       </c>
       <c r="P26" t="n">
         <v>568.5098731722294</v>
       </c>
       <c r="Q26" t="n">
-        <v>349.5244650162091</v>
+        <v>349.524465016209</v>
       </c>
       <c r="R26" t="n">
-        <v>57.0934116918707</v>
+        <v>57.09341169187067</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>190.4707916504378</v>
       </c>
       <c r="K27" t="n">
-        <v>40.6636203862751</v>
+        <v>453.2293901258977</v>
       </c>
       <c r="L27" t="n">
-        <v>85.09104545911016</v>
+        <v>352.5773167110397</v>
       </c>
       <c r="M27" t="n">
         <v>112.0062914260331</v>
       </c>
       <c r="N27" t="n">
-        <v>734.6559975813258</v>
+        <v>124.4309860842873</v>
       </c>
       <c r="O27" t="n">
-        <v>713.6665063491073</v>
+        <v>99.24128827740923</v>
       </c>
       <c r="P27" t="n">
-        <v>563.7583748560027</v>
+        <v>563.7583748560025</v>
       </c>
       <c r="Q27" t="n">
-        <v>11.98338753625225</v>
+        <v>339.7039564041768</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>26.40682805882226</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>17.73924622005806</v>
+        <v>17.73924622005804</v>
       </c>
       <c r="K28" t="n">
         <v>161.2343099417328</v>
@@ -36767,13 +36767,13 @@
         <v>288.530915079741</v>
       </c>
       <c r="O28" t="n">
-        <v>259.9388283523794</v>
+        <v>259.9388283523793</v>
       </c>
       <c r="P28" t="n">
         <v>202.8812900972299</v>
       </c>
       <c r="Q28" t="n">
-        <v>60.08686572533983</v>
+        <v>60.08686572533982</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>274.072786493618</v>
+        <v>274.0727864936189</v>
       </c>
       <c r="K29" t="n">
         <v>554.3901649764437</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>190.4707916504378</v>
       </c>
       <c r="K30" t="n">
-        <v>40.6636203862751</v>
+        <v>453.2293901258978</v>
       </c>
       <c r="L30" t="n">
         <v>663.6019841325065</v>
       </c>
       <c r="M30" t="n">
-        <v>507.1733974237318</v>
+        <v>155.109020931313</v>
       </c>
       <c r="N30" t="n">
-        <v>872.2050900602309</v>
+        <v>124.4309860842874</v>
       </c>
       <c r="O30" t="n">
         <v>99.24128827740928</v>
       </c>
       <c r="P30" t="n">
-        <v>66.95645577770068</v>
+        <v>563.7583748560027</v>
       </c>
       <c r="Q30" t="n">
         <v>11.98338753625225</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>190.4707916504378</v>
       </c>
       <c r="K33" t="n">
-        <v>40.6636203862751</v>
+        <v>453.2293901258978</v>
       </c>
       <c r="L33" t="n">
-        <v>663.6019841325065</v>
+        <v>352.5773167110394</v>
       </c>
       <c r="M33" t="n">
-        <v>507.1733974237318</v>
+        <v>112.0062914260331</v>
       </c>
       <c r="N33" t="n">
-        <v>872.2050900602309</v>
+        <v>124.4309860842874</v>
       </c>
       <c r="O33" t="n">
         <v>99.24128827740928</v>
       </c>
       <c r="P33" t="n">
-        <v>66.95645577770068</v>
+        <v>563.7583748560027</v>
       </c>
       <c r="Q33" t="n">
-        <v>11.98338753625225</v>
+        <v>339.7039564041768</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>26.40682805882228</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>10.28206682518383</v>
+        <v>274.0727864936189</v>
       </c>
       <c r="K35" t="n">
-        <v>554.3901649764437</v>
+        <v>465.5371633344478</v>
       </c>
       <c r="L35" t="n">
-        <v>668.0732845812734</v>
+        <v>84.67401806729004</v>
       </c>
       <c r="M35" t="n">
         <v>115.0092250250393</v>
       </c>
       <c r="N35" t="n">
-        <v>606.2603960977725</v>
+        <v>119.8994626519039</v>
       </c>
       <c r="O35" t="n">
-        <v>104.4621880773119</v>
+        <v>668.0732845812734</v>
       </c>
       <c r="P35" t="n">
         <v>568.5098731722294</v>
       </c>
       <c r="Q35" t="n">
-        <v>18.31307958675777</v>
+        <v>349.5244650162091</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>190.4707916504378</v>
       </c>
       <c r="K36" t="n">
-        <v>40.6636203862751</v>
+        <v>453.2293901258978</v>
       </c>
       <c r="L36" t="n">
-        <v>663.6019841325065</v>
+        <v>85.09104545911016</v>
       </c>
       <c r="M36" t="n">
-        <v>495.6447134453736</v>
+        <v>112.0062914260331</v>
       </c>
       <c r="N36" t="n">
         <v>124.4309860842874</v>
       </c>
       <c r="O36" t="n">
-        <v>668.0732845812734</v>
+        <v>366.7275595293387</v>
       </c>
       <c r="P36" t="n">
-        <v>66.95645577770068</v>
+        <v>563.7583748560027</v>
       </c>
       <c r="Q36" t="n">
-        <v>11.98338753625225</v>
+        <v>339.7039564041768</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>26.40682805882228</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>554.3901649764437</v>
       </c>
       <c r="L38" t="n">
-        <v>559.4321129292554</v>
+        <v>456.1708640555287</v>
       </c>
       <c r="M38" t="n">
         <v>115.0092250250393</v>
       </c>
       <c r="N38" t="n">
-        <v>119.8994626519039</v>
+        <v>668.0732845812735</v>
       </c>
       <c r="O38" t="n">
         <v>104.4621880773119</v>
       </c>
       <c r="P38" t="n">
-        <v>568.5098731722294</v>
+        <v>66.50388842471654</v>
       </c>
       <c r="Q38" t="n">
         <v>349.5244650162091</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>57.0934116918707</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>190.4707916504378</v>
       </c>
       <c r="K39" t="n">
         <v>453.2293901258978</v>
@@ -37630,7 +37630,7 @@
         <v>85.09104545911016</v>
       </c>
       <c r="M39" t="n">
-        <v>596.3701823872227</v>
+        <v>379.4925626779626</v>
       </c>
       <c r="N39" t="n">
         <v>124.4309860842874</v>
@@ -37645,7 +37645,7 @@
         <v>339.7039564041768</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>26.40682805882228</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>274.0727864936189</v>
+        <v>10.28206682518383</v>
       </c>
       <c r="K41" t="n">
         <v>48.72332136542673</v>
       </c>
       <c r="L41" t="n">
-        <v>233.4673487276721</v>
+        <v>668.0732845812735</v>
       </c>
       <c r="M41" t="n">
-        <v>668.0732845812734</v>
+        <v>668.0732845812735</v>
       </c>
       <c r="N41" t="n">
-        <v>668.0732845812734</v>
+        <v>668.0732845812735</v>
       </c>
       <c r="O41" t="n">
-        <v>668.0732845812734</v>
+        <v>497.2580683961074</v>
       </c>
       <c r="P41" t="n">
         <v>66.50388842471654</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>190.4707916504378</v>
       </c>
       <c r="K42" t="n">
-        <v>40.6636203862751</v>
+        <v>453.2293901258978</v>
       </c>
       <c r="L42" t="n">
-        <v>85.09104545911016</v>
+        <v>352.5773167110397</v>
       </c>
       <c r="M42" t="n">
-        <v>224.1822261939199</v>
+        <v>112.0062914260331</v>
       </c>
       <c r="N42" t="n">
-        <v>668.0732845812734</v>
+        <v>124.4309860842874</v>
       </c>
       <c r="O42" t="n">
-        <v>668.0732845812734</v>
+        <v>99.24128827740928</v>
       </c>
       <c r="P42" t="n">
         <v>563.7583748560027</v>
       </c>
       <c r="Q42" t="n">
-        <v>11.98338753625225</v>
+        <v>339.7039564041768</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>26.40682805882228</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,25 +38019,25 @@
         <v>274.0727864936189</v>
       </c>
       <c r="K44" t="n">
-        <v>554.3901649764437</v>
+        <v>48.72332136542673</v>
       </c>
       <c r="L44" t="n">
-        <v>668.0732845812734</v>
+        <v>84.67401806729004</v>
       </c>
       <c r="M44" t="n">
-        <v>668.0732845812734</v>
+        <v>115.0092250250393</v>
       </c>
       <c r="N44" t="n">
-        <v>234.3181899287459</v>
+        <v>479.6198929290545</v>
       </c>
       <c r="O44" t="n">
-        <v>104.4621880773119</v>
+        <v>668.0732845812735</v>
       </c>
       <c r="P44" t="n">
-        <v>66.50388842471654</v>
+        <v>568.5098731722294</v>
       </c>
       <c r="Q44" t="n">
-        <v>18.31307958675777</v>
+        <v>349.5244650162091</v>
       </c>
       <c r="R44" t="n">
         <v>57.0934116918707</v>
@@ -38098,7 +38098,7 @@
         <v>190.4707916504378</v>
       </c>
       <c r="K45" t="n">
-        <v>40.6636203862751</v>
+        <v>453.2293901258978</v>
       </c>
       <c r="L45" t="n">
         <v>85.09104545911016</v>
@@ -38107,10 +38107,10 @@
         <v>112.0062914260331</v>
       </c>
       <c r="N45" t="n">
-        <v>668.0732845812734</v>
+        <v>124.4309860842874</v>
       </c>
       <c r="O45" t="n">
-        <v>262.0578588307976</v>
+        <v>393.1343875881609</v>
       </c>
       <c r="P45" t="n">
         <v>563.7583748560027</v>
